--- a/public/assets/images/user-import/Plantilla_Usuarios_LIA.xlsx
+++ b/public/assets/images/user-import/Plantilla_Usuarios_LIA.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="RegistroUsuarios" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Configuraciones" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Configuraciones" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Tipo_Usuario</t>
   </si>
@@ -83,16 +83,25 @@
     <t>Alumno</t>
   </si>
   <si>
+    <t>ProfesoreSummit2021</t>
+  </si>
+  <si>
     <t>Primaria - Primer Grado</t>
   </si>
   <si>
-    <t>Padre o Tutor</t>
+    <t>ProfesorSummit2021</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
   </si>
   <si>
     <t>Primaria - Segundo Grado</t>
   </si>
   <si>
     <t>Primaria - Tercer Grado</t>
+  </si>
+  <si>
+    <t>Padre o Tutor</t>
   </si>
   <si>
     <t>Primaria - Cuarto Grado</t>
@@ -117,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -130,6 +139,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color rgb="FF586573"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -139,12 +152,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F9FC"/>
+        <bgColor rgb="FFF5F9FC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -153,24 +172,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -428,5001 +467,5002 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="A21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="A22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="A23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="A25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="A26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="A39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="A43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="A44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="A45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="A46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="A47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="A48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="A51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="A52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="A55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="A56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="A57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="A58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="A59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="A60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="A61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="A62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="A63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="A64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="A68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="A69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="A70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="A71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="A72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="A73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="A74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="A75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="A76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="A77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="A78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
+      <c r="A79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
+      <c r="A80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="A81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
+      <c r="A82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="A83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
+      <c r="A84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
+      <c r="A85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
+      <c r="A86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="A87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
+      <c r="A88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
+      <c r="A89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="A90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="A91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="A92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="A93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
+      <c r="A94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
+      <c r="A95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="A96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
+      <c r="A97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
+      <c r="A98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="A99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
+      <c r="A100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="A101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="A102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="A103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="A104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="A105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="A106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="A107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
+      <c r="A108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
+      <c r="A109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="A110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="A111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="A112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
+      <c r="A113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
+      <c r="A114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="A115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
+      <c r="A116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
+      <c r="A117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="A118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="A119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
+      <c r="A120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
+      <c r="A121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
+      <c r="A122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
+      <c r="A123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
+      <c r="A124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
+      <c r="A125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
+      <c r="A126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
+      <c r="A127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
+      <c r="A128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
+      <c r="A129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="A130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
+      <c r="A131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
+      <c r="A132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
+      <c r="A133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
+      <c r="A134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
+      <c r="A135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
+      <c r="A136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
+      <c r="A137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
+      <c r="A138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
+      <c r="A139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
+      <c r="A140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
+      <c r="A141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
+      <c r="A142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
+      <c r="A143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
+      <c r="A144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="A145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
+      <c r="A146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
+      <c r="A147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
+      <c r="A148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
+      <c r="A149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
+      <c r="A150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
+      <c r="A151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
+      <c r="A152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
+      <c r="A153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+      <c r="A154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+      <c r="A155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
+      <c r="A156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
+      <c r="A157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
+      <c r="A158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
+      <c r="A159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="A160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
+      <c r="A161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
+      <c r="A162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
+      <c r="A163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="A164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
+      <c r="A164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="A165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
+      <c r="A165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="A166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
+      <c r="A166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="A167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
+      <c r="A167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="A168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
+      <c r="A168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="A169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
+      <c r="A169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="A170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
+      <c r="A170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="A171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
+      <c r="A171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="A172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
+      <c r="A172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="A173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
+      <c r="A173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="A174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
+      <c r="A174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="A175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
+      <c r="A175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="A176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
+      <c r="A176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="A177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
+      <c r="A177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="A178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
+      <c r="A178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="A179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
+      <c r="A179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="A180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
+      <c r="A180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="A181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
+      <c r="A181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="A182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
+      <c r="A182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="A183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
+      <c r="A183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="A184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
+      <c r="A184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="A185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
+      <c r="A185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="A186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
+      <c r="A186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="A187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
+      <c r="A187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="A188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
+      <c r="A188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="A189" s="2"/>
-      <c r="G189" s="2"/>
-      <c r="H189" s="2"/>
+      <c r="A189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="A190" s="2"/>
-      <c r="G190" s="2"/>
-      <c r="H190" s="2"/>
+      <c r="A190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="A191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
+      <c r="A191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="A192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
+      <c r="A192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
+      <c r="A193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="A194" s="2"/>
-      <c r="G194" s="2"/>
-      <c r="H194" s="2"/>
+      <c r="A194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="A195" s="2"/>
-      <c r="G195" s="2"/>
-      <c r="H195" s="2"/>
+      <c r="A195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="A196" s="2"/>
-      <c r="G196" s="2"/>
-      <c r="H196" s="2"/>
+      <c r="A196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="A197" s="2"/>
-      <c r="G197" s="2"/>
-      <c r="H197" s="2"/>
+      <c r="A197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="A198" s="2"/>
-      <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
+      <c r="A198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="A199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
+      <c r="A199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="A200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
+      <c r="A200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="A201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
+      <c r="A201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
+      <c r="A202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="A203" s="2"/>
-      <c r="G203" s="2"/>
-      <c r="H203" s="2"/>
+      <c r="A203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="A204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
+      <c r="A204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="A205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
+      <c r="A205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="A206" s="2"/>
-      <c r="G206" s="2"/>
-      <c r="H206" s="2"/>
+      <c r="A206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="A207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="H207" s="2"/>
+      <c r="A207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="A208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="H208" s="2"/>
+      <c r="A208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="A209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
+      <c r="A209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
+      <c r="A210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
+      <c r="A211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="2"/>
+      <c r="A212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
+      <c r="A213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="A214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
+      <c r="A214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="A215" s="2"/>
-      <c r="G215" s="2"/>
-      <c r="H215" s="2"/>
+      <c r="A215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="A216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
+      <c r="A216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="A217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
+      <c r="A217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="A218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
+      <c r="A218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="A219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
+      <c r="A219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="A220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
+      <c r="A220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
+      <c r="A221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
+      <c r="A222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
+      <c r="A223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
+      <c r="A224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
+      <c r="A225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
+      <c r="A226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
+      <c r="A227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
+      <c r="A228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
+      <c r="A229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
+      <c r="A230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
+      <c r="A231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
+      <c r="A232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="A233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
+      <c r="A234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
+      <c r="A235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
+      <c r="A236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="A237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
+      <c r="A238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="A239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
+      <c r="A240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
+      <c r="A241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
+      <c r="A242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
+      <c r="A243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
+      <c r="A244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
+      <c r="A245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
+      <c r="A246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
+      <c r="A247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
+      <c r="A248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
+      <c r="A249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
+      <c r="A250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
+      <c r="A251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
+      <c r="A252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
+      <c r="A253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
+      <c r="A254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
+      <c r="A255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
+      <c r="A256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
+      <c r="A257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
+      <c r="A258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
+      <c r="A259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
+      <c r="A260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
+      <c r="A261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
+      <c r="A262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
+      <c r="A263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
+      <c r="A264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
+      <c r="A265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
+      <c r="A266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="A267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
+      <c r="A268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
+      <c r="A269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
+      <c r="A270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="A271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
+      <c r="A272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
+      <c r="A273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="3"/>
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
+      <c r="A274" s="5"/>
+      <c r="G274" s="5"/>
+      <c r="H274" s="5"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
+      <c r="A275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
+      <c r="A276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
+      <c r="A277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
+      <c r="A278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
+      <c r="A279" s="5"/>
+      <c r="G279" s="5"/>
+      <c r="H279" s="5"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
+      <c r="A280" s="5"/>
+      <c r="G280" s="5"/>
+      <c r="H280" s="5"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
+      <c r="A281" s="5"/>
+      <c r="G281" s="5"/>
+      <c r="H281" s="5"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
+      <c r="A282" s="5"/>
+      <c r="G282" s="5"/>
+      <c r="H282" s="5"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
+      <c r="A283" s="5"/>
+      <c r="G283" s="5"/>
+      <c r="H283" s="5"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="3"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
+      <c r="A284" s="5"/>
+      <c r="G284" s="5"/>
+      <c r="H284" s="5"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
+      <c r="A285" s="5"/>
+      <c r="G285" s="5"/>
+      <c r="H285" s="5"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="3"/>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
+      <c r="A286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="5"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
+      <c r="A287" s="5"/>
+      <c r="G287" s="5"/>
+      <c r="H287" s="5"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="3"/>
-      <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
+      <c r="A288" s="5"/>
+      <c r="G288" s="5"/>
+      <c r="H288" s="5"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="3"/>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
+      <c r="A289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="3"/>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
+      <c r="A290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="3"/>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
+      <c r="A291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
+      <c r="A292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="3"/>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
+      <c r="A293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="3"/>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
+      <c r="A294" s="5"/>
+      <c r="G294" s="5"/>
+      <c r="H294" s="5"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
+      <c r="A295" s="5"/>
+      <c r="G295" s="5"/>
+      <c r="H295" s="5"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
+      <c r="A296" s="5"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="5"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
+      <c r="A297" s="5"/>
+      <c r="G297" s="5"/>
+      <c r="H297" s="5"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="3"/>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
+      <c r="A298" s="5"/>
+      <c r="G298" s="5"/>
+      <c r="H298" s="5"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
+      <c r="A299" s="5"/>
+      <c r="G299" s="5"/>
+      <c r="H299" s="5"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="3"/>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
+      <c r="A300" s="5"/>
+      <c r="G300" s="5"/>
+      <c r="H300" s="5"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
+      <c r="A301" s="5"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="5"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="3"/>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
+      <c r="A302" s="5"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="5"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="3"/>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
+      <c r="A303" s="5"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="5"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="3"/>
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
+      <c r="A304" s="5"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="5"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="3"/>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
+      <c r="A305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="3"/>
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
+      <c r="A306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="3"/>
-      <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
+      <c r="A307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="3"/>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
+      <c r="A308" s="5"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="5"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="3"/>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
+      <c r="A309" s="5"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="5"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
+      <c r="A310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="3"/>
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
+      <c r="A311" s="5"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="5"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="3"/>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
+      <c r="A312" s="5"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="5"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="3"/>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
+      <c r="A313" s="5"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="5"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="3"/>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
+      <c r="A314" s="5"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="5"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="A315" s="5"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="5"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
+      <c r="A316" s="5"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="5"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
+      <c r="A317" s="5"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="5"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
+      <c r="A318" s="5"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="5"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
+      <c r="A319" s="5"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="5"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
+      <c r="A320" s="5"/>
+      <c r="G320" s="5"/>
+      <c r="H320" s="5"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
+      <c r="A321" s="5"/>
+      <c r="G321" s="5"/>
+      <c r="H321" s="5"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
+      <c r="A322" s="5"/>
+      <c r="G322" s="5"/>
+      <c r="H322" s="5"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
+      <c r="A323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="5"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="3"/>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
+      <c r="A324" s="5"/>
+      <c r="G324" s="5"/>
+      <c r="H324" s="5"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="3"/>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
+      <c r="A325" s="5"/>
+      <c r="G325" s="5"/>
+      <c r="H325" s="5"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
+      <c r="A326" s="5"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="5"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="3"/>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
+      <c r="A327" s="5"/>
+      <c r="G327" s="5"/>
+      <c r="H327" s="5"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
+      <c r="A328" s="5"/>
+      <c r="G328" s="5"/>
+      <c r="H328" s="5"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
+      <c r="A329" s="5"/>
+      <c r="G329" s="5"/>
+      <c r="H329" s="5"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="3"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
+      <c r="A330" s="5"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="5"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="3"/>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
+      <c r="A331" s="5"/>
+      <c r="G331" s="5"/>
+      <c r="H331" s="5"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="3"/>
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
+      <c r="A332" s="5"/>
+      <c r="G332" s="5"/>
+      <c r="H332" s="5"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="3"/>
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
+      <c r="A333" s="5"/>
+      <c r="G333" s="5"/>
+      <c r="H333" s="5"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="3"/>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
+      <c r="A334" s="5"/>
+      <c r="G334" s="5"/>
+      <c r="H334" s="5"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="3"/>
-      <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
+      <c r="A335" s="5"/>
+      <c r="G335" s="5"/>
+      <c r="H335" s="5"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="3"/>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
+      <c r="A336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="3"/>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
+      <c r="A337" s="5"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="5"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="3"/>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
+      <c r="A338" s="5"/>
+      <c r="G338" s="5"/>
+      <c r="H338" s="5"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="3"/>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
+      <c r="A339" s="5"/>
+      <c r="G339" s="5"/>
+      <c r="H339" s="5"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="3"/>
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
+      <c r="A340" s="5"/>
+      <c r="G340" s="5"/>
+      <c r="H340" s="5"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
+      <c r="A341" s="5"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="5"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
+      <c r="A342" s="5"/>
+      <c r="G342" s="5"/>
+      <c r="H342" s="5"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
+      <c r="A343" s="5"/>
+      <c r="G343" s="5"/>
+      <c r="H343" s="5"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="3"/>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
+      <c r="A344" s="5"/>
+      <c r="G344" s="5"/>
+      <c r="H344" s="5"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="3"/>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
+      <c r="A345" s="5"/>
+      <c r="G345" s="5"/>
+      <c r="H345" s="5"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="3"/>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
+      <c r="A346" s="5"/>
+      <c r="G346" s="5"/>
+      <c r="H346" s="5"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="3"/>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
+      <c r="A347" s="5"/>
+      <c r="G347" s="5"/>
+      <c r="H347" s="5"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
+      <c r="A348" s="5"/>
+      <c r="G348" s="5"/>
+      <c r="H348" s="5"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
+      <c r="A349" s="5"/>
+      <c r="G349" s="5"/>
+      <c r="H349" s="5"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
+      <c r="A350" s="5"/>
+      <c r="G350" s="5"/>
+      <c r="H350" s="5"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
+      <c r="A351" s="5"/>
+      <c r="G351" s="5"/>
+      <c r="H351" s="5"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
+      <c r="A352" s="5"/>
+      <c r="G352" s="5"/>
+      <c r="H352" s="5"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
+      <c r="A353" s="5"/>
+      <c r="G353" s="5"/>
+      <c r="H353" s="5"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
+      <c r="A354" s="5"/>
+      <c r="G354" s="5"/>
+      <c r="H354" s="5"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
+      <c r="A355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="5"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
+      <c r="A356" s="5"/>
+      <c r="G356" s="5"/>
+      <c r="H356" s="5"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
+      <c r="A357" s="5"/>
+      <c r="G357" s="5"/>
+      <c r="H357" s="5"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
+      <c r="A358" s="5"/>
+      <c r="G358" s="5"/>
+      <c r="H358" s="5"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
+      <c r="A359" s="5"/>
+      <c r="G359" s="5"/>
+      <c r="H359" s="5"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
+      <c r="A360" s="5"/>
+      <c r="G360" s="5"/>
+      <c r="H360" s="5"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
+      <c r="A361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="5"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
+      <c r="A362" s="5"/>
+      <c r="G362" s="5"/>
+      <c r="H362" s="5"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
+      <c r="A363" s="5"/>
+      <c r="G363" s="5"/>
+      <c r="H363" s="5"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="3"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
+      <c r="A364" s="5"/>
+      <c r="G364" s="5"/>
+      <c r="H364" s="5"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="3"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
+      <c r="A365" s="5"/>
+      <c r="G365" s="5"/>
+      <c r="H365" s="5"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
+      <c r="A366" s="5"/>
+      <c r="G366" s="5"/>
+      <c r="H366" s="5"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
+      <c r="A367" s="5"/>
+      <c r="G367" s="5"/>
+      <c r="H367" s="5"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="3"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
+      <c r="A368" s="5"/>
+      <c r="G368" s="5"/>
+      <c r="H368" s="5"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="3"/>
-      <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
+      <c r="A369" s="5"/>
+      <c r="G369" s="5"/>
+      <c r="H369" s="5"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="3"/>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
+      <c r="A370" s="5"/>
+      <c r="G370" s="5"/>
+      <c r="H370" s="5"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="3"/>
-      <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
+      <c r="A371" s="5"/>
+      <c r="G371" s="5"/>
+      <c r="H371" s="5"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="3"/>
-      <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
+      <c r="A372" s="5"/>
+      <c r="G372" s="5"/>
+      <c r="H372" s="5"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
+      <c r="A373" s="5"/>
+      <c r="G373" s="5"/>
+      <c r="H373" s="5"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
+      <c r="A374" s="5"/>
+      <c r="G374" s="5"/>
+      <c r="H374" s="5"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
+      <c r="A375" s="5"/>
+      <c r="G375" s="5"/>
+      <c r="H375" s="5"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
+      <c r="A376" s="5"/>
+      <c r="G376" s="5"/>
+      <c r="H376" s="5"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
+      <c r="A377" s="5"/>
+      <c r="G377" s="5"/>
+      <c r="H377" s="5"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="3"/>
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
+      <c r="A378" s="5"/>
+      <c r="G378" s="5"/>
+      <c r="H378" s="5"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
+      <c r="A379" s="5"/>
+      <c r="G379" s="5"/>
+      <c r="H379" s="5"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="3"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
+      <c r="A380" s="5"/>
+      <c r="G380" s="5"/>
+      <c r="H380" s="5"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
+      <c r="A381" s="5"/>
+      <c r="G381" s="5"/>
+      <c r="H381" s="5"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="3"/>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
+      <c r="A382" s="5"/>
+      <c r="G382" s="5"/>
+      <c r="H382" s="5"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
+      <c r="A383" s="5"/>
+      <c r="G383" s="5"/>
+      <c r="H383" s="5"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="3"/>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
+      <c r="A384" s="5"/>
+      <c r="G384" s="5"/>
+      <c r="H384" s="5"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
+      <c r="A385" s="5"/>
+      <c r="G385" s="5"/>
+      <c r="H385" s="5"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
+      <c r="A386" s="5"/>
+      <c r="G386" s="5"/>
+      <c r="H386" s="5"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
+      <c r="A387" s="5"/>
+      <c r="G387" s="5"/>
+      <c r="H387" s="5"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="3"/>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
+      <c r="A388" s="5"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="5"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="3"/>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
+      <c r="A389" s="5"/>
+      <c r="G389" s="5"/>
+      <c r="H389" s="5"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="3"/>
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
+      <c r="A390" s="5"/>
+      <c r="G390" s="5"/>
+      <c r="H390" s="5"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
+      <c r="A391" s="5"/>
+      <c r="G391" s="5"/>
+      <c r="H391" s="5"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
+      <c r="A392" s="5"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="5"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
+      <c r="A393" s="5"/>
+      <c r="G393" s="5"/>
+      <c r="H393" s="5"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
+      <c r="A394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="3"/>
-      <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
+      <c r="A395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="3"/>
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
+      <c r="A396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="3"/>
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
+      <c r="A397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="3"/>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
+      <c r="A398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="3"/>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
+      <c r="A399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="3"/>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
+      <c r="A400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="3"/>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
+      <c r="A401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="3"/>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
+      <c r="A402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="3"/>
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
+      <c r="A403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="3"/>
-      <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
+      <c r="A404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="3"/>
-      <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
+      <c r="A405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="3"/>
-      <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
+      <c r="A406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="3"/>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
+      <c r="A407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="3"/>
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
+      <c r="A408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="3"/>
-      <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
+      <c r="A409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="3"/>
-      <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
+      <c r="A410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="3"/>
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
+      <c r="A411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="3"/>
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
+      <c r="A412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="3"/>
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
+      <c r="A413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="3"/>
-      <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
+      <c r="A414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="3"/>
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
+      <c r="A415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="3"/>
-      <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
+      <c r="A416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="3"/>
-      <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
+      <c r="A417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="3"/>
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
+      <c r="A418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
+      <c r="A419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
+      <c r="A420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="3"/>
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
+      <c r="A421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="3"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
+      <c r="A422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
+      <c r="A423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="3"/>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
+      <c r="A424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="3"/>
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
+      <c r="A425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="3"/>
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
+      <c r="A426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="3"/>
-      <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
+      <c r="A427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="3"/>
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
+      <c r="A428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
+      <c r="A429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
+      <c r="A430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
+      <c r="A431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="3"/>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
+      <c r="A432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="3"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
+      <c r="A433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
+      <c r="A434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="3"/>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
+      <c r="A435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="3"/>
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
+      <c r="A436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="3"/>
-      <c r="G437" s="3"/>
-      <c r="H437" s="3"/>
+      <c r="A437" s="5"/>
+      <c r="G437" s="5"/>
+      <c r="H437" s="5"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="3"/>
-      <c r="G438" s="3"/>
-      <c r="H438" s="3"/>
+      <c r="A438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="3"/>
-      <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
+      <c r="A439" s="5"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="3"/>
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
+      <c r="A440" s="5"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="3"/>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
+      <c r="A441" s="5"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="3"/>
-      <c r="G442" s="3"/>
-      <c r="H442" s="3"/>
+      <c r="A442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="3"/>
-      <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
+      <c r="A443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="3"/>
-      <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
+      <c r="A444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="3"/>
-      <c r="G445" s="3"/>
-      <c r="H445" s="3"/>
+      <c r="A445" s="5"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="3"/>
-      <c r="G446" s="3"/>
-      <c r="H446" s="3"/>
+      <c r="A446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="3"/>
-      <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
+      <c r="A447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="3"/>
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
+      <c r="A448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="3"/>
-      <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
+      <c r="A449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="3"/>
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
+      <c r="A450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="3"/>
-      <c r="G451" s="3"/>
-      <c r="H451" s="3"/>
+      <c r="A451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="3"/>
-      <c r="G452" s="3"/>
-      <c r="H452" s="3"/>
+      <c r="A452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="3"/>
-      <c r="G453" s="3"/>
-      <c r="H453" s="3"/>
+      <c r="A453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="3"/>
-      <c r="G454" s="3"/>
-      <c r="H454" s="3"/>
+      <c r="A454" s="5"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="3"/>
-      <c r="G455" s="3"/>
-      <c r="H455" s="3"/>
+      <c r="A455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="3"/>
-      <c r="G456" s="3"/>
-      <c r="H456" s="3"/>
+      <c r="A456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="3"/>
-      <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
+      <c r="A457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="3"/>
-      <c r="G458" s="3"/>
-      <c r="H458" s="3"/>
+      <c r="A458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="3"/>
-      <c r="G459" s="3"/>
-      <c r="H459" s="3"/>
+      <c r="A459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="3"/>
-      <c r="G460" s="3"/>
-      <c r="H460" s="3"/>
+      <c r="A460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="3"/>
-      <c r="G461" s="3"/>
-      <c r="H461" s="3"/>
+      <c r="A461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="3"/>
-      <c r="G462" s="3"/>
-      <c r="H462" s="3"/>
+      <c r="A462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="3"/>
-      <c r="G463" s="3"/>
-      <c r="H463" s="3"/>
+      <c r="A463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="3"/>
-      <c r="G464" s="3"/>
-      <c r="H464" s="3"/>
+      <c r="A464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="3"/>
-      <c r="G465" s="3"/>
-      <c r="H465" s="3"/>
+      <c r="A465" s="5"/>
+      <c r="G465" s="5"/>
+      <c r="H465" s="5"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="3"/>
-      <c r="G466" s="3"/>
-      <c r="H466" s="3"/>
+      <c r="A466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="3"/>
-      <c r="G467" s="3"/>
-      <c r="H467" s="3"/>
+      <c r="A467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="3"/>
-      <c r="G468" s="3"/>
-      <c r="H468" s="3"/>
+      <c r="A468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="3"/>
-      <c r="G469" s="3"/>
-      <c r="H469" s="3"/>
+      <c r="A469" s="5"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="3"/>
-      <c r="G470" s="3"/>
-      <c r="H470" s="3"/>
+      <c r="A470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="3"/>
-      <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
+      <c r="A471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="3"/>
-      <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
+      <c r="A472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="3"/>
-      <c r="G473" s="3"/>
-      <c r="H473" s="3"/>
+      <c r="A473" s="5"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="3"/>
-      <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
+      <c r="A474" s="5"/>
+      <c r="G474" s="5"/>
+      <c r="H474" s="5"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="3"/>
-      <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
+      <c r="A475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="3"/>
-      <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
+      <c r="A476" s="5"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="3"/>
-      <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
+      <c r="A477" s="5"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="3"/>
-      <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
+      <c r="A478" s="5"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="3"/>
-      <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
+      <c r="A479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="3"/>
-      <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
+      <c r="A480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="3"/>
-      <c r="G481" s="3"/>
-      <c r="H481" s="3"/>
+      <c r="A481" s="5"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="3"/>
-      <c r="G482" s="3"/>
-      <c r="H482" s="3"/>
+      <c r="A482" s="5"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="3"/>
-      <c r="G483" s="3"/>
-      <c r="H483" s="3"/>
+      <c r="A483" s="5"/>
+      <c r="G483" s="5"/>
+      <c r="H483" s="5"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="3"/>
-      <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
+      <c r="A484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="3"/>
-      <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
+      <c r="A485" s="5"/>
+      <c r="G485" s="5"/>
+      <c r="H485" s="5"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="3"/>
-      <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
+      <c r="A486" s="5"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="3"/>
-      <c r="G487" s="3"/>
-      <c r="H487" s="3"/>
+      <c r="A487" s="5"/>
+      <c r="G487" s="5"/>
+      <c r="H487" s="5"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="3"/>
-      <c r="G488" s="3"/>
-      <c r="H488" s="3"/>
+      <c r="A488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="3"/>
-      <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
+      <c r="A489" s="5"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="3"/>
-      <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
+      <c r="A490" s="5"/>
+      <c r="G490" s="5"/>
+      <c r="H490" s="5"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="3"/>
-      <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
+      <c r="A491" s="5"/>
+      <c r="G491" s="5"/>
+      <c r="H491" s="5"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="3"/>
-      <c r="G492" s="3"/>
-      <c r="H492" s="3"/>
+      <c r="A492" s="5"/>
+      <c r="G492" s="5"/>
+      <c r="H492" s="5"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="3"/>
-      <c r="G493" s="3"/>
-      <c r="H493" s="3"/>
+      <c r="A493" s="5"/>
+      <c r="G493" s="5"/>
+      <c r="H493" s="5"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="3"/>
-      <c r="G494" s="3"/>
-      <c r="H494" s="3"/>
+      <c r="A494" s="5"/>
+      <c r="G494" s="5"/>
+      <c r="H494" s="5"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="3"/>
-      <c r="G495" s="3"/>
-      <c r="H495" s="3"/>
+      <c r="A495" s="5"/>
+      <c r="G495" s="5"/>
+      <c r="H495" s="5"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="3"/>
-      <c r="G496" s="3"/>
-      <c r="H496" s="3"/>
+      <c r="A496" s="5"/>
+      <c r="G496" s="5"/>
+      <c r="H496" s="5"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="3"/>
-      <c r="G497" s="3"/>
-      <c r="H497" s="3"/>
+      <c r="A497" s="5"/>
+      <c r="G497" s="5"/>
+      <c r="H497" s="5"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="3"/>
-      <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
+      <c r="A498" s="5"/>
+      <c r="G498" s="5"/>
+      <c r="H498" s="5"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="3"/>
-      <c r="G499" s="3"/>
-      <c r="H499" s="3"/>
+      <c r="A499" s="5"/>
+      <c r="G499" s="5"/>
+      <c r="H499" s="5"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="3"/>
-      <c r="G500" s="3"/>
-      <c r="H500" s="3"/>
+      <c r="A500" s="5"/>
+      <c r="G500" s="5"/>
+      <c r="H500" s="5"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="3"/>
-      <c r="G501" s="3"/>
-      <c r="H501" s="3"/>
+      <c r="A501" s="5"/>
+      <c r="G501" s="5"/>
+      <c r="H501" s="5"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="3"/>
-      <c r="G502" s="3"/>
-      <c r="H502" s="3"/>
+      <c r="A502" s="5"/>
+      <c r="G502" s="5"/>
+      <c r="H502" s="5"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="3"/>
-      <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
+      <c r="A503" s="5"/>
+      <c r="G503" s="5"/>
+      <c r="H503" s="5"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="3"/>
-      <c r="G504" s="3"/>
-      <c r="H504" s="3"/>
+      <c r="A504" s="5"/>
+      <c r="G504" s="5"/>
+      <c r="H504" s="5"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="3"/>
-      <c r="G505" s="3"/>
-      <c r="H505" s="3"/>
+      <c r="A505" s="5"/>
+      <c r="G505" s="5"/>
+      <c r="H505" s="5"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="3"/>
-      <c r="G506" s="3"/>
-      <c r="H506" s="3"/>
+      <c r="A506" s="5"/>
+      <c r="G506" s="5"/>
+      <c r="H506" s="5"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="3"/>
-      <c r="G507" s="3"/>
-      <c r="H507" s="3"/>
+      <c r="A507" s="5"/>
+      <c r="G507" s="5"/>
+      <c r="H507" s="5"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="3"/>
-      <c r="G508" s="3"/>
-      <c r="H508" s="3"/>
+      <c r="A508" s="5"/>
+      <c r="G508" s="5"/>
+      <c r="H508" s="5"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="3"/>
-      <c r="G509" s="3"/>
-      <c r="H509" s="3"/>
+      <c r="A509" s="5"/>
+      <c r="G509" s="5"/>
+      <c r="H509" s="5"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="3"/>
-      <c r="G510" s="3"/>
-      <c r="H510" s="3"/>
+      <c r="A510" s="5"/>
+      <c r="G510" s="5"/>
+      <c r="H510" s="5"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="3"/>
-      <c r="G511" s="3"/>
-      <c r="H511" s="3"/>
+      <c r="A511" s="5"/>
+      <c r="G511" s="5"/>
+      <c r="H511" s="5"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="3"/>
-      <c r="G512" s="3"/>
-      <c r="H512" s="3"/>
+      <c r="A512" s="5"/>
+      <c r="G512" s="5"/>
+      <c r="H512" s="5"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="3"/>
-      <c r="G513" s="3"/>
-      <c r="H513" s="3"/>
+      <c r="A513" s="5"/>
+      <c r="G513" s="5"/>
+      <c r="H513" s="5"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="3"/>
-      <c r="G514" s="3"/>
-      <c r="H514" s="3"/>
+      <c r="A514" s="5"/>
+      <c r="G514" s="5"/>
+      <c r="H514" s="5"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="3"/>
-      <c r="G515" s="3"/>
-      <c r="H515" s="3"/>
+      <c r="A515" s="5"/>
+      <c r="G515" s="5"/>
+      <c r="H515" s="5"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="3"/>
-      <c r="G516" s="3"/>
-      <c r="H516" s="3"/>
+      <c r="A516" s="5"/>
+      <c r="G516" s="5"/>
+      <c r="H516" s="5"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="3"/>
-      <c r="G517" s="3"/>
-      <c r="H517" s="3"/>
+      <c r="A517" s="5"/>
+      <c r="G517" s="5"/>
+      <c r="H517" s="5"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="3"/>
-      <c r="G518" s="3"/>
-      <c r="H518" s="3"/>
+      <c r="A518" s="5"/>
+      <c r="G518" s="5"/>
+      <c r="H518" s="5"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="3"/>
-      <c r="G519" s="3"/>
-      <c r="H519" s="3"/>
+      <c r="A519" s="5"/>
+      <c r="G519" s="5"/>
+      <c r="H519" s="5"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="3"/>
-      <c r="G520" s="3"/>
-      <c r="H520" s="3"/>
+      <c r="A520" s="5"/>
+      <c r="G520" s="5"/>
+      <c r="H520" s="5"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="3"/>
-      <c r="G521" s="3"/>
-      <c r="H521" s="3"/>
+      <c r="A521" s="5"/>
+      <c r="G521" s="5"/>
+      <c r="H521" s="5"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="3"/>
-      <c r="G522" s="3"/>
-      <c r="H522" s="3"/>
+      <c r="A522" s="5"/>
+      <c r="G522" s="5"/>
+      <c r="H522" s="5"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="3"/>
-      <c r="G523" s="3"/>
-      <c r="H523" s="3"/>
+      <c r="A523" s="5"/>
+      <c r="G523" s="5"/>
+      <c r="H523" s="5"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="3"/>
-      <c r="G524" s="3"/>
-      <c r="H524" s="3"/>
+      <c r="A524" s="5"/>
+      <c r="G524" s="5"/>
+      <c r="H524" s="5"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="3"/>
-      <c r="G525" s="3"/>
-      <c r="H525" s="3"/>
+      <c r="A525" s="5"/>
+      <c r="G525" s="5"/>
+      <c r="H525" s="5"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="3"/>
-      <c r="G526" s="3"/>
-      <c r="H526" s="3"/>
+      <c r="A526" s="5"/>
+      <c r="G526" s="5"/>
+      <c r="H526" s="5"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="3"/>
-      <c r="G527" s="3"/>
-      <c r="H527" s="3"/>
+      <c r="A527" s="5"/>
+      <c r="G527" s="5"/>
+      <c r="H527" s="5"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="3"/>
-      <c r="G528" s="3"/>
-      <c r="H528" s="3"/>
+      <c r="A528" s="5"/>
+      <c r="G528" s="5"/>
+      <c r="H528" s="5"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="3"/>
-      <c r="G529" s="3"/>
-      <c r="H529" s="3"/>
+      <c r="A529" s="5"/>
+      <c r="G529" s="5"/>
+      <c r="H529" s="5"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="3"/>
-      <c r="G530" s="3"/>
-      <c r="H530" s="3"/>
+      <c r="A530" s="5"/>
+      <c r="G530" s="5"/>
+      <c r="H530" s="5"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="3"/>
-      <c r="G531" s="3"/>
-      <c r="H531" s="3"/>
+      <c r="A531" s="5"/>
+      <c r="G531" s="5"/>
+      <c r="H531" s="5"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="3"/>
-      <c r="G532" s="3"/>
-      <c r="H532" s="3"/>
+      <c r="A532" s="5"/>
+      <c r="G532" s="5"/>
+      <c r="H532" s="5"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="3"/>
-      <c r="G533" s="3"/>
-      <c r="H533" s="3"/>
+      <c r="A533" s="5"/>
+      <c r="G533" s="5"/>
+      <c r="H533" s="5"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="3"/>
-      <c r="G534" s="3"/>
-      <c r="H534" s="3"/>
+      <c r="A534" s="5"/>
+      <c r="G534" s="5"/>
+      <c r="H534" s="5"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="3"/>
-      <c r="G535" s="3"/>
-      <c r="H535" s="3"/>
+      <c r="A535" s="5"/>
+      <c r="G535" s="5"/>
+      <c r="H535" s="5"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="3"/>
-      <c r="G536" s="3"/>
-      <c r="H536" s="3"/>
+      <c r="A536" s="5"/>
+      <c r="G536" s="5"/>
+      <c r="H536" s="5"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="3"/>
-      <c r="G537" s="3"/>
-      <c r="H537" s="3"/>
+      <c r="A537" s="5"/>
+      <c r="G537" s="5"/>
+      <c r="H537" s="5"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="3"/>
-      <c r="G538" s="3"/>
-      <c r="H538" s="3"/>
+      <c r="A538" s="5"/>
+      <c r="G538" s="5"/>
+      <c r="H538" s="5"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="3"/>
-      <c r="G539" s="3"/>
-      <c r="H539" s="3"/>
+      <c r="A539" s="5"/>
+      <c r="G539" s="5"/>
+      <c r="H539" s="5"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="3"/>
-      <c r="G540" s="3"/>
-      <c r="H540" s="3"/>
+      <c r="A540" s="5"/>
+      <c r="G540" s="5"/>
+      <c r="H540" s="5"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="3"/>
-      <c r="G541" s="3"/>
-      <c r="H541" s="3"/>
+      <c r="A541" s="5"/>
+      <c r="G541" s="5"/>
+      <c r="H541" s="5"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="3"/>
-      <c r="G542" s="3"/>
-      <c r="H542" s="3"/>
+      <c r="A542" s="5"/>
+      <c r="G542" s="5"/>
+      <c r="H542" s="5"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="3"/>
-      <c r="G543" s="3"/>
-      <c r="H543" s="3"/>
+      <c r="A543" s="5"/>
+      <c r="G543" s="5"/>
+      <c r="H543" s="5"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="3"/>
-      <c r="G544" s="3"/>
-      <c r="H544" s="3"/>
+      <c r="A544" s="5"/>
+      <c r="G544" s="5"/>
+      <c r="H544" s="5"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="3"/>
-      <c r="G545" s="3"/>
-      <c r="H545" s="3"/>
+      <c r="A545" s="5"/>
+      <c r="G545" s="5"/>
+      <c r="H545" s="5"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="3"/>
-      <c r="G546" s="3"/>
-      <c r="H546" s="3"/>
+      <c r="A546" s="5"/>
+      <c r="G546" s="5"/>
+      <c r="H546" s="5"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="3"/>
-      <c r="G547" s="3"/>
-      <c r="H547" s="3"/>
+      <c r="A547" s="5"/>
+      <c r="G547" s="5"/>
+      <c r="H547" s="5"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="3"/>
-      <c r="G548" s="3"/>
-      <c r="H548" s="3"/>
+      <c r="A548" s="5"/>
+      <c r="G548" s="5"/>
+      <c r="H548" s="5"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="3"/>
-      <c r="G549" s="3"/>
-      <c r="H549" s="3"/>
+      <c r="A549" s="5"/>
+      <c r="G549" s="5"/>
+      <c r="H549" s="5"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="3"/>
-      <c r="G550" s="3"/>
-      <c r="H550" s="3"/>
+      <c r="A550" s="5"/>
+      <c r="G550" s="5"/>
+      <c r="H550" s="5"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="3"/>
-      <c r="G551" s="3"/>
-      <c r="H551" s="3"/>
+      <c r="A551" s="5"/>
+      <c r="G551" s="5"/>
+      <c r="H551" s="5"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="3"/>
-      <c r="G552" s="3"/>
-      <c r="H552" s="3"/>
+      <c r="A552" s="5"/>
+      <c r="G552" s="5"/>
+      <c r="H552" s="5"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="3"/>
-      <c r="G553" s="3"/>
-      <c r="H553" s="3"/>
+      <c r="A553" s="5"/>
+      <c r="G553" s="5"/>
+      <c r="H553" s="5"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="3"/>
-      <c r="G554" s="3"/>
-      <c r="H554" s="3"/>
+      <c r="A554" s="5"/>
+      <c r="G554" s="5"/>
+      <c r="H554" s="5"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="3"/>
-      <c r="G555" s="3"/>
-      <c r="H555" s="3"/>
+      <c r="A555" s="5"/>
+      <c r="G555" s="5"/>
+      <c r="H555" s="5"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="3"/>
-      <c r="G556" s="3"/>
-      <c r="H556" s="3"/>
+      <c r="A556" s="5"/>
+      <c r="G556" s="5"/>
+      <c r="H556" s="5"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="3"/>
-      <c r="G557" s="3"/>
-      <c r="H557" s="3"/>
+      <c r="A557" s="5"/>
+      <c r="G557" s="5"/>
+      <c r="H557" s="5"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="3"/>
-      <c r="G558" s="3"/>
-      <c r="H558" s="3"/>
+      <c r="A558" s="5"/>
+      <c r="G558" s="5"/>
+      <c r="H558" s="5"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="3"/>
-      <c r="G559" s="3"/>
-      <c r="H559" s="3"/>
+      <c r="A559" s="5"/>
+      <c r="G559" s="5"/>
+      <c r="H559" s="5"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="3"/>
-      <c r="G560" s="3"/>
-      <c r="H560" s="3"/>
+      <c r="A560" s="5"/>
+      <c r="G560" s="5"/>
+      <c r="H560" s="5"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="3"/>
-      <c r="G561" s="3"/>
-      <c r="H561" s="3"/>
+      <c r="A561" s="5"/>
+      <c r="G561" s="5"/>
+      <c r="H561" s="5"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="3"/>
-      <c r="G562" s="3"/>
-      <c r="H562" s="3"/>
+      <c r="A562" s="5"/>
+      <c r="G562" s="5"/>
+      <c r="H562" s="5"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="3"/>
-      <c r="G563" s="3"/>
-      <c r="H563" s="3"/>
+      <c r="A563" s="5"/>
+      <c r="G563" s="5"/>
+      <c r="H563" s="5"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="3"/>
-      <c r="G564" s="3"/>
-      <c r="H564" s="3"/>
+      <c r="A564" s="5"/>
+      <c r="G564" s="5"/>
+      <c r="H564" s="5"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="3"/>
-      <c r="G565" s="3"/>
-      <c r="H565" s="3"/>
+      <c r="A565" s="5"/>
+      <c r="G565" s="5"/>
+      <c r="H565" s="5"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="3"/>
-      <c r="G566" s="3"/>
-      <c r="H566" s="3"/>
+      <c r="A566" s="5"/>
+      <c r="G566" s="5"/>
+      <c r="H566" s="5"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="3"/>
-      <c r="G567" s="3"/>
-      <c r="H567" s="3"/>
+      <c r="A567" s="5"/>
+      <c r="G567" s="5"/>
+      <c r="H567" s="5"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="3"/>
-      <c r="G568" s="3"/>
-      <c r="H568" s="3"/>
+      <c r="A568" s="5"/>
+      <c r="G568" s="5"/>
+      <c r="H568" s="5"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="3"/>
-      <c r="G569" s="3"/>
-      <c r="H569" s="3"/>
+      <c r="A569" s="5"/>
+      <c r="G569" s="5"/>
+      <c r="H569" s="5"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="3"/>
-      <c r="G570" s="3"/>
-      <c r="H570" s="3"/>
+      <c r="A570" s="5"/>
+      <c r="G570" s="5"/>
+      <c r="H570" s="5"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="3"/>
-      <c r="G571" s="3"/>
-      <c r="H571" s="3"/>
+      <c r="A571" s="5"/>
+      <c r="G571" s="5"/>
+      <c r="H571" s="5"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="3"/>
-      <c r="G572" s="3"/>
-      <c r="H572" s="3"/>
+      <c r="A572" s="5"/>
+      <c r="G572" s="5"/>
+      <c r="H572" s="5"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="3"/>
-      <c r="G573" s="3"/>
-      <c r="H573" s="3"/>
+      <c r="A573" s="5"/>
+      <c r="G573" s="5"/>
+      <c r="H573" s="5"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="3"/>
-      <c r="G574" s="3"/>
-      <c r="H574" s="3"/>
+      <c r="A574" s="5"/>
+      <c r="G574" s="5"/>
+      <c r="H574" s="5"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="3"/>
-      <c r="G575" s="3"/>
-      <c r="H575" s="3"/>
+      <c r="A575" s="5"/>
+      <c r="G575" s="5"/>
+      <c r="H575" s="5"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="3"/>
-      <c r="G576" s="3"/>
-      <c r="H576" s="3"/>
+      <c r="A576" s="5"/>
+      <c r="G576" s="5"/>
+      <c r="H576" s="5"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="3"/>
-      <c r="G577" s="3"/>
-      <c r="H577" s="3"/>
+      <c r="A577" s="5"/>
+      <c r="G577" s="5"/>
+      <c r="H577" s="5"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="3"/>
-      <c r="G578" s="3"/>
-      <c r="H578" s="3"/>
+      <c r="A578" s="5"/>
+      <c r="G578" s="5"/>
+      <c r="H578" s="5"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="3"/>
-      <c r="G579" s="3"/>
-      <c r="H579" s="3"/>
+      <c r="A579" s="5"/>
+      <c r="G579" s="5"/>
+      <c r="H579" s="5"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="3"/>
-      <c r="G580" s="3"/>
-      <c r="H580" s="3"/>
+      <c r="A580" s="5"/>
+      <c r="G580" s="5"/>
+      <c r="H580" s="5"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="3"/>
-      <c r="G581" s="3"/>
-      <c r="H581" s="3"/>
+      <c r="A581" s="5"/>
+      <c r="G581" s="5"/>
+      <c r="H581" s="5"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="3"/>
-      <c r="G582" s="3"/>
-      <c r="H582" s="3"/>
+      <c r="A582" s="5"/>
+      <c r="G582" s="5"/>
+      <c r="H582" s="5"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="3"/>
-      <c r="G583" s="3"/>
-      <c r="H583" s="3"/>
+      <c r="A583" s="5"/>
+      <c r="G583" s="5"/>
+      <c r="H583" s="5"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="3"/>
-      <c r="G584" s="3"/>
-      <c r="H584" s="3"/>
+      <c r="A584" s="5"/>
+      <c r="G584" s="5"/>
+      <c r="H584" s="5"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="3"/>
-      <c r="G585" s="3"/>
-      <c r="H585" s="3"/>
+      <c r="A585" s="5"/>
+      <c r="G585" s="5"/>
+      <c r="H585" s="5"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="3"/>
-      <c r="G586" s="3"/>
-      <c r="H586" s="3"/>
+      <c r="A586" s="5"/>
+      <c r="G586" s="5"/>
+      <c r="H586" s="5"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="3"/>
-      <c r="G587" s="3"/>
-      <c r="H587" s="3"/>
+      <c r="A587" s="5"/>
+      <c r="G587" s="5"/>
+      <c r="H587" s="5"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="3"/>
-      <c r="G588" s="3"/>
-      <c r="H588" s="3"/>
+      <c r="A588" s="5"/>
+      <c r="G588" s="5"/>
+      <c r="H588" s="5"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="3"/>
-      <c r="G589" s="3"/>
-      <c r="H589" s="3"/>
+      <c r="A589" s="5"/>
+      <c r="G589" s="5"/>
+      <c r="H589" s="5"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="3"/>
-      <c r="G590" s="3"/>
-      <c r="H590" s="3"/>
+      <c r="A590" s="5"/>
+      <c r="G590" s="5"/>
+      <c r="H590" s="5"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="3"/>
-      <c r="G591" s="3"/>
-      <c r="H591" s="3"/>
+      <c r="A591" s="5"/>
+      <c r="G591" s="5"/>
+      <c r="H591" s="5"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="3"/>
-      <c r="G592" s="3"/>
-      <c r="H592" s="3"/>
+      <c r="A592" s="5"/>
+      <c r="G592" s="5"/>
+      <c r="H592" s="5"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="3"/>
-      <c r="G593" s="3"/>
-      <c r="H593" s="3"/>
+      <c r="A593" s="5"/>
+      <c r="G593" s="5"/>
+      <c r="H593" s="5"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="3"/>
-      <c r="G594" s="3"/>
-      <c r="H594" s="3"/>
+      <c r="A594" s="5"/>
+      <c r="G594" s="5"/>
+      <c r="H594" s="5"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="3"/>
-      <c r="G595" s="3"/>
-      <c r="H595" s="3"/>
+      <c r="A595" s="5"/>
+      <c r="G595" s="5"/>
+      <c r="H595" s="5"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="3"/>
-      <c r="G596" s="3"/>
-      <c r="H596" s="3"/>
+      <c r="A596" s="5"/>
+      <c r="G596" s="5"/>
+      <c r="H596" s="5"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="3"/>
-      <c r="G597" s="3"/>
-      <c r="H597" s="3"/>
+      <c r="A597" s="5"/>
+      <c r="G597" s="5"/>
+      <c r="H597" s="5"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="3"/>
-      <c r="G598" s="3"/>
-      <c r="H598" s="3"/>
+      <c r="A598" s="5"/>
+      <c r="G598" s="5"/>
+      <c r="H598" s="5"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="3"/>
-      <c r="G599" s="3"/>
-      <c r="H599" s="3"/>
+      <c r="A599" s="5"/>
+      <c r="G599" s="5"/>
+      <c r="H599" s="5"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="3"/>
-      <c r="G600" s="3"/>
-      <c r="H600" s="3"/>
+      <c r="A600" s="5"/>
+      <c r="G600" s="5"/>
+      <c r="H600" s="5"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="3"/>
-      <c r="G601" s="3"/>
-      <c r="H601" s="3"/>
+      <c r="A601" s="5"/>
+      <c r="G601" s="5"/>
+      <c r="H601" s="5"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="3"/>
-      <c r="G602" s="3"/>
-      <c r="H602" s="3"/>
+      <c r="A602" s="5"/>
+      <c r="G602" s="5"/>
+      <c r="H602" s="5"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="3"/>
-      <c r="G603" s="3"/>
-      <c r="H603" s="3"/>
+      <c r="A603" s="5"/>
+      <c r="G603" s="5"/>
+      <c r="H603" s="5"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="3"/>
-      <c r="G604" s="3"/>
-      <c r="H604" s="3"/>
+      <c r="A604" s="5"/>
+      <c r="G604" s="5"/>
+      <c r="H604" s="5"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="3"/>
-      <c r="G605" s="3"/>
-      <c r="H605" s="3"/>
+      <c r="A605" s="5"/>
+      <c r="G605" s="5"/>
+      <c r="H605" s="5"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="3"/>
-      <c r="G606" s="3"/>
-      <c r="H606" s="3"/>
+      <c r="A606" s="5"/>
+      <c r="G606" s="5"/>
+      <c r="H606" s="5"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="3"/>
-      <c r="G607" s="3"/>
-      <c r="H607" s="3"/>
+      <c r="A607" s="5"/>
+      <c r="G607" s="5"/>
+      <c r="H607" s="5"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="3"/>
-      <c r="G608" s="3"/>
-      <c r="H608" s="3"/>
+      <c r="A608" s="5"/>
+      <c r="G608" s="5"/>
+      <c r="H608" s="5"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="3"/>
-      <c r="G609" s="3"/>
-      <c r="H609" s="3"/>
+      <c r="A609" s="5"/>
+      <c r="G609" s="5"/>
+      <c r="H609" s="5"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="3"/>
-      <c r="G610" s="3"/>
-      <c r="H610" s="3"/>
+      <c r="A610" s="5"/>
+      <c r="G610" s="5"/>
+      <c r="H610" s="5"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="3"/>
-      <c r="G611" s="3"/>
-      <c r="H611" s="3"/>
+      <c r="A611" s="5"/>
+      <c r="G611" s="5"/>
+      <c r="H611" s="5"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="3"/>
-      <c r="G612" s="3"/>
-      <c r="H612" s="3"/>
+      <c r="A612" s="5"/>
+      <c r="G612" s="5"/>
+      <c r="H612" s="5"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="3"/>
-      <c r="G613" s="3"/>
-      <c r="H613" s="3"/>
+      <c r="A613" s="5"/>
+      <c r="G613" s="5"/>
+      <c r="H613" s="5"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="3"/>
-      <c r="G614" s="3"/>
-      <c r="H614" s="3"/>
+      <c r="A614" s="5"/>
+      <c r="G614" s="5"/>
+      <c r="H614" s="5"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="3"/>
-      <c r="G615" s="3"/>
-      <c r="H615" s="3"/>
+      <c r="A615" s="5"/>
+      <c r="G615" s="5"/>
+      <c r="H615" s="5"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="3"/>
-      <c r="G616" s="3"/>
-      <c r="H616" s="3"/>
+      <c r="A616" s="5"/>
+      <c r="G616" s="5"/>
+      <c r="H616" s="5"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="3"/>
-      <c r="G617" s="3"/>
-      <c r="H617" s="3"/>
+      <c r="A617" s="5"/>
+      <c r="G617" s="5"/>
+      <c r="H617" s="5"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="3"/>
-      <c r="G618" s="3"/>
-      <c r="H618" s="3"/>
+      <c r="A618" s="5"/>
+      <c r="G618" s="5"/>
+      <c r="H618" s="5"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="3"/>
-      <c r="G619" s="3"/>
-      <c r="H619" s="3"/>
+      <c r="A619" s="5"/>
+      <c r="G619" s="5"/>
+      <c r="H619" s="5"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="3"/>
-      <c r="G620" s="3"/>
-      <c r="H620" s="3"/>
+      <c r="A620" s="5"/>
+      <c r="G620" s="5"/>
+      <c r="H620" s="5"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="3"/>
-      <c r="G621" s="3"/>
-      <c r="H621" s="3"/>
+      <c r="A621" s="5"/>
+      <c r="G621" s="5"/>
+      <c r="H621" s="5"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="3"/>
-      <c r="G622" s="3"/>
-      <c r="H622" s="3"/>
+      <c r="A622" s="5"/>
+      <c r="G622" s="5"/>
+      <c r="H622" s="5"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="3"/>
-      <c r="G623" s="3"/>
-      <c r="H623" s="3"/>
+      <c r="A623" s="5"/>
+      <c r="G623" s="5"/>
+      <c r="H623" s="5"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="3"/>
-      <c r="G624" s="3"/>
-      <c r="H624" s="3"/>
+      <c r="A624" s="5"/>
+      <c r="G624" s="5"/>
+      <c r="H624" s="5"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="3"/>
-      <c r="G625" s="3"/>
-      <c r="H625" s="3"/>
+      <c r="A625" s="5"/>
+      <c r="G625" s="5"/>
+      <c r="H625" s="5"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="3"/>
-      <c r="G626" s="3"/>
-      <c r="H626" s="3"/>
+      <c r="A626" s="5"/>
+      <c r="G626" s="5"/>
+      <c r="H626" s="5"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="3"/>
-      <c r="G627" s="3"/>
-      <c r="H627" s="3"/>
+      <c r="A627" s="5"/>
+      <c r="G627" s="5"/>
+      <c r="H627" s="5"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="3"/>
-      <c r="G628" s="3"/>
-      <c r="H628" s="3"/>
+      <c r="A628" s="5"/>
+      <c r="G628" s="5"/>
+      <c r="H628" s="5"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="3"/>
-      <c r="G629" s="3"/>
-      <c r="H629" s="3"/>
+      <c r="A629" s="5"/>
+      <c r="G629" s="5"/>
+      <c r="H629" s="5"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="3"/>
-      <c r="G630" s="3"/>
-      <c r="H630" s="3"/>
+      <c r="A630" s="5"/>
+      <c r="G630" s="5"/>
+      <c r="H630" s="5"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="3"/>
-      <c r="G631" s="3"/>
-      <c r="H631" s="3"/>
+      <c r="A631" s="5"/>
+      <c r="G631" s="5"/>
+      <c r="H631" s="5"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="3"/>
-      <c r="G632" s="3"/>
-      <c r="H632" s="3"/>
+      <c r="A632" s="5"/>
+      <c r="G632" s="5"/>
+      <c r="H632" s="5"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="3"/>
-      <c r="G633" s="3"/>
-      <c r="H633" s="3"/>
+      <c r="A633" s="5"/>
+      <c r="G633" s="5"/>
+      <c r="H633" s="5"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="3"/>
-      <c r="G634" s="3"/>
-      <c r="H634" s="3"/>
+      <c r="A634" s="5"/>
+      <c r="G634" s="5"/>
+      <c r="H634" s="5"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="3"/>
-      <c r="G635" s="3"/>
-      <c r="H635" s="3"/>
+      <c r="A635" s="5"/>
+      <c r="G635" s="5"/>
+      <c r="H635" s="5"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="3"/>
-      <c r="G636" s="3"/>
-      <c r="H636" s="3"/>
+      <c r="A636" s="5"/>
+      <c r="G636" s="5"/>
+      <c r="H636" s="5"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="3"/>
-      <c r="G637" s="3"/>
-      <c r="H637" s="3"/>
+      <c r="A637" s="5"/>
+      <c r="G637" s="5"/>
+      <c r="H637" s="5"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="3"/>
-      <c r="G638" s="3"/>
-      <c r="H638" s="3"/>
+      <c r="A638" s="5"/>
+      <c r="G638" s="5"/>
+      <c r="H638" s="5"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="3"/>
-      <c r="G639" s="3"/>
-      <c r="H639" s="3"/>
+      <c r="A639" s="5"/>
+      <c r="G639" s="5"/>
+      <c r="H639" s="5"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="3"/>
-      <c r="G640" s="3"/>
-      <c r="H640" s="3"/>
+      <c r="A640" s="5"/>
+      <c r="G640" s="5"/>
+      <c r="H640" s="5"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="3"/>
-      <c r="G641" s="3"/>
-      <c r="H641" s="3"/>
+      <c r="A641" s="5"/>
+      <c r="G641" s="5"/>
+      <c r="H641" s="5"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="3"/>
-      <c r="G642" s="3"/>
-      <c r="H642" s="3"/>
+      <c r="A642" s="5"/>
+      <c r="G642" s="5"/>
+      <c r="H642" s="5"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="3"/>
-      <c r="G643" s="3"/>
-      <c r="H643" s="3"/>
+      <c r="A643" s="5"/>
+      <c r="G643" s="5"/>
+      <c r="H643" s="5"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="3"/>
-      <c r="G644" s="3"/>
-      <c r="H644" s="3"/>
+      <c r="A644" s="5"/>
+      <c r="G644" s="5"/>
+      <c r="H644" s="5"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="3"/>
-      <c r="G645" s="3"/>
-      <c r="H645" s="3"/>
+      <c r="A645" s="5"/>
+      <c r="G645" s="5"/>
+      <c r="H645" s="5"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="3"/>
-      <c r="G646" s="3"/>
-      <c r="H646" s="3"/>
+      <c r="A646" s="5"/>
+      <c r="G646" s="5"/>
+      <c r="H646" s="5"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="3"/>
-      <c r="G647" s="3"/>
-      <c r="H647" s="3"/>
+      <c r="A647" s="5"/>
+      <c r="G647" s="5"/>
+      <c r="H647" s="5"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="3"/>
-      <c r="G648" s="3"/>
-      <c r="H648" s="3"/>
+      <c r="A648" s="5"/>
+      <c r="G648" s="5"/>
+      <c r="H648" s="5"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="3"/>
-      <c r="G649" s="3"/>
-      <c r="H649" s="3"/>
+      <c r="A649" s="5"/>
+      <c r="G649" s="5"/>
+      <c r="H649" s="5"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="3"/>
-      <c r="G650" s="3"/>
-      <c r="H650" s="3"/>
+      <c r="A650" s="5"/>
+      <c r="G650" s="5"/>
+      <c r="H650" s="5"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="3"/>
-      <c r="G651" s="3"/>
-      <c r="H651" s="3"/>
+      <c r="A651" s="5"/>
+      <c r="G651" s="5"/>
+      <c r="H651" s="5"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="3"/>
-      <c r="G652" s="3"/>
-      <c r="H652" s="3"/>
+      <c r="A652" s="5"/>
+      <c r="G652" s="5"/>
+      <c r="H652" s="5"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="3"/>
-      <c r="G653" s="3"/>
-      <c r="H653" s="3"/>
+      <c r="A653" s="5"/>
+      <c r="G653" s="5"/>
+      <c r="H653" s="5"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="3"/>
-      <c r="G654" s="3"/>
-      <c r="H654" s="3"/>
+      <c r="A654" s="5"/>
+      <c r="G654" s="5"/>
+      <c r="H654" s="5"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="3"/>
-      <c r="G655" s="3"/>
-      <c r="H655" s="3"/>
+      <c r="A655" s="5"/>
+      <c r="G655" s="5"/>
+      <c r="H655" s="5"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="3"/>
-      <c r="G656" s="3"/>
-      <c r="H656" s="3"/>
+      <c r="A656" s="5"/>
+      <c r="G656" s="5"/>
+      <c r="H656" s="5"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="3"/>
-      <c r="G657" s="3"/>
-      <c r="H657" s="3"/>
+      <c r="A657" s="5"/>
+      <c r="G657" s="5"/>
+      <c r="H657" s="5"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="3"/>
-      <c r="G658" s="3"/>
-      <c r="H658" s="3"/>
+      <c r="A658" s="5"/>
+      <c r="G658" s="5"/>
+      <c r="H658" s="5"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="3"/>
-      <c r="G659" s="3"/>
-      <c r="H659" s="3"/>
+      <c r="A659" s="5"/>
+      <c r="G659" s="5"/>
+      <c r="H659" s="5"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="3"/>
-      <c r="G660" s="3"/>
-      <c r="H660" s="3"/>
+      <c r="A660" s="5"/>
+      <c r="G660" s="5"/>
+      <c r="H660" s="5"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="3"/>
-      <c r="G661" s="3"/>
-      <c r="H661" s="3"/>
+      <c r="A661" s="5"/>
+      <c r="G661" s="5"/>
+      <c r="H661" s="5"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="3"/>
-      <c r="G662" s="3"/>
-      <c r="H662" s="3"/>
+      <c r="A662" s="5"/>
+      <c r="G662" s="5"/>
+      <c r="H662" s="5"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="3"/>
-      <c r="G663" s="3"/>
-      <c r="H663" s="3"/>
+      <c r="A663" s="5"/>
+      <c r="G663" s="5"/>
+      <c r="H663" s="5"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="3"/>
-      <c r="G664" s="3"/>
-      <c r="H664" s="3"/>
+      <c r="A664" s="5"/>
+      <c r="G664" s="5"/>
+      <c r="H664" s="5"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="3"/>
-      <c r="G665" s="3"/>
-      <c r="H665" s="3"/>
+      <c r="A665" s="5"/>
+      <c r="G665" s="5"/>
+      <c r="H665" s="5"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="3"/>
-      <c r="G666" s="3"/>
-      <c r="H666" s="3"/>
+      <c r="A666" s="5"/>
+      <c r="G666" s="5"/>
+      <c r="H666" s="5"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="3"/>
-      <c r="G667" s="3"/>
-      <c r="H667" s="3"/>
+      <c r="A667" s="5"/>
+      <c r="G667" s="5"/>
+      <c r="H667" s="5"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="3"/>
-      <c r="G668" s="3"/>
-      <c r="H668" s="3"/>
+      <c r="A668" s="5"/>
+      <c r="G668" s="5"/>
+      <c r="H668" s="5"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="3"/>
-      <c r="G669" s="3"/>
-      <c r="H669" s="3"/>
+      <c r="A669" s="5"/>
+      <c r="G669" s="5"/>
+      <c r="H669" s="5"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="3"/>
-      <c r="G670" s="3"/>
-      <c r="H670" s="3"/>
+      <c r="A670" s="5"/>
+      <c r="G670" s="5"/>
+      <c r="H670" s="5"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="3"/>
-      <c r="G671" s="3"/>
-      <c r="H671" s="3"/>
+      <c r="A671" s="5"/>
+      <c r="G671" s="5"/>
+      <c r="H671" s="5"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="3"/>
-      <c r="G672" s="3"/>
-      <c r="H672" s="3"/>
+      <c r="A672" s="5"/>
+      <c r="G672" s="5"/>
+      <c r="H672" s="5"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="3"/>
-      <c r="G673" s="3"/>
-      <c r="H673" s="3"/>
+      <c r="A673" s="5"/>
+      <c r="G673" s="5"/>
+      <c r="H673" s="5"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="3"/>
-      <c r="G674" s="3"/>
-      <c r="H674" s="3"/>
+      <c r="A674" s="5"/>
+      <c r="G674" s="5"/>
+      <c r="H674" s="5"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="3"/>
-      <c r="G675" s="3"/>
-      <c r="H675" s="3"/>
+      <c r="A675" s="5"/>
+      <c r="G675" s="5"/>
+      <c r="H675" s="5"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="3"/>
-      <c r="G676" s="3"/>
-      <c r="H676" s="3"/>
+      <c r="A676" s="5"/>
+      <c r="G676" s="5"/>
+      <c r="H676" s="5"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="3"/>
-      <c r="G677" s="3"/>
-      <c r="H677" s="3"/>
+      <c r="A677" s="5"/>
+      <c r="G677" s="5"/>
+      <c r="H677" s="5"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="3"/>
-      <c r="G678" s="3"/>
-      <c r="H678" s="3"/>
+      <c r="A678" s="5"/>
+      <c r="G678" s="5"/>
+      <c r="H678" s="5"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="3"/>
-      <c r="G679" s="3"/>
-      <c r="H679" s="3"/>
+      <c r="A679" s="5"/>
+      <c r="G679" s="5"/>
+      <c r="H679" s="5"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="3"/>
-      <c r="G680" s="3"/>
-      <c r="H680" s="3"/>
+      <c r="A680" s="5"/>
+      <c r="G680" s="5"/>
+      <c r="H680" s="5"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="3"/>
-      <c r="G681" s="3"/>
-      <c r="H681" s="3"/>
+      <c r="A681" s="5"/>
+      <c r="G681" s="5"/>
+      <c r="H681" s="5"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="3"/>
-      <c r="G682" s="3"/>
-      <c r="H682" s="3"/>
+      <c r="A682" s="5"/>
+      <c r="G682" s="5"/>
+      <c r="H682" s="5"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="3"/>
-      <c r="G683" s="3"/>
-      <c r="H683" s="3"/>
+      <c r="A683" s="5"/>
+      <c r="G683" s="5"/>
+      <c r="H683" s="5"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="3"/>
-      <c r="G684" s="3"/>
-      <c r="H684" s="3"/>
+      <c r="A684" s="5"/>
+      <c r="G684" s="5"/>
+      <c r="H684" s="5"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="3"/>
-      <c r="G685" s="3"/>
-      <c r="H685" s="3"/>
+      <c r="A685" s="5"/>
+      <c r="G685" s="5"/>
+      <c r="H685" s="5"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="3"/>
-      <c r="G686" s="3"/>
-      <c r="H686" s="3"/>
+      <c r="A686" s="5"/>
+      <c r="G686" s="5"/>
+      <c r="H686" s="5"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="3"/>
-      <c r="G687" s="3"/>
-      <c r="H687" s="3"/>
+      <c r="A687" s="5"/>
+      <c r="G687" s="5"/>
+      <c r="H687" s="5"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="3"/>
-      <c r="G688" s="3"/>
-      <c r="H688" s="3"/>
+      <c r="A688" s="5"/>
+      <c r="G688" s="5"/>
+      <c r="H688" s="5"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="3"/>
-      <c r="G689" s="3"/>
-      <c r="H689" s="3"/>
+      <c r="A689" s="5"/>
+      <c r="G689" s="5"/>
+      <c r="H689" s="5"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="3"/>
-      <c r="G690" s="3"/>
-      <c r="H690" s="3"/>
+      <c r="A690" s="5"/>
+      <c r="G690" s="5"/>
+      <c r="H690" s="5"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="3"/>
-      <c r="G691" s="3"/>
-      <c r="H691" s="3"/>
+      <c r="A691" s="5"/>
+      <c r="G691" s="5"/>
+      <c r="H691" s="5"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="3"/>
-      <c r="G692" s="3"/>
-      <c r="H692" s="3"/>
+      <c r="A692" s="5"/>
+      <c r="G692" s="5"/>
+      <c r="H692" s="5"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="3"/>
-      <c r="G693" s="3"/>
-      <c r="H693" s="3"/>
+      <c r="A693" s="5"/>
+      <c r="G693" s="5"/>
+      <c r="H693" s="5"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="3"/>
-      <c r="G694" s="3"/>
-      <c r="H694" s="3"/>
+      <c r="A694" s="5"/>
+      <c r="G694" s="5"/>
+      <c r="H694" s="5"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="3"/>
-      <c r="G695" s="3"/>
-      <c r="H695" s="3"/>
+      <c r="A695" s="5"/>
+      <c r="G695" s="5"/>
+      <c r="H695" s="5"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="3"/>
-      <c r="G696" s="3"/>
-      <c r="H696" s="3"/>
+      <c r="A696" s="5"/>
+      <c r="G696" s="5"/>
+      <c r="H696" s="5"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="3"/>
-      <c r="G697" s="3"/>
-      <c r="H697" s="3"/>
+      <c r="A697" s="5"/>
+      <c r="G697" s="5"/>
+      <c r="H697" s="5"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="3"/>
-      <c r="G698" s="3"/>
-      <c r="H698" s="3"/>
+      <c r="A698" s="5"/>
+      <c r="G698" s="5"/>
+      <c r="H698" s="5"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="3"/>
-      <c r="G699" s="3"/>
-      <c r="H699" s="3"/>
+      <c r="A699" s="5"/>
+      <c r="G699" s="5"/>
+      <c r="H699" s="5"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="3"/>
-      <c r="G700" s="3"/>
-      <c r="H700" s="3"/>
+      <c r="A700" s="5"/>
+      <c r="G700" s="5"/>
+      <c r="H700" s="5"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="3"/>
-      <c r="G701" s="3"/>
-      <c r="H701" s="3"/>
+      <c r="A701" s="5"/>
+      <c r="G701" s="5"/>
+      <c r="H701" s="5"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="3"/>
-      <c r="G702" s="3"/>
-      <c r="H702" s="3"/>
+      <c r="A702" s="5"/>
+      <c r="G702" s="5"/>
+      <c r="H702" s="5"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="3"/>
-      <c r="G703" s="3"/>
-      <c r="H703" s="3"/>
+      <c r="A703" s="5"/>
+      <c r="G703" s="5"/>
+      <c r="H703" s="5"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="3"/>
-      <c r="G704" s="3"/>
-      <c r="H704" s="3"/>
+      <c r="A704" s="5"/>
+      <c r="G704" s="5"/>
+      <c r="H704" s="5"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="3"/>
-      <c r="G705" s="3"/>
-      <c r="H705" s="3"/>
+      <c r="A705" s="5"/>
+      <c r="G705" s="5"/>
+      <c r="H705" s="5"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="3"/>
-      <c r="G706" s="3"/>
-      <c r="H706" s="3"/>
+      <c r="A706" s="5"/>
+      <c r="G706" s="5"/>
+      <c r="H706" s="5"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="3"/>
-      <c r="G707" s="3"/>
-      <c r="H707" s="3"/>
+      <c r="A707" s="5"/>
+      <c r="G707" s="5"/>
+      <c r="H707" s="5"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="3"/>
-      <c r="G708" s="3"/>
-      <c r="H708" s="3"/>
+      <c r="A708" s="5"/>
+      <c r="G708" s="5"/>
+      <c r="H708" s="5"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="3"/>
-      <c r="G709" s="3"/>
-      <c r="H709" s="3"/>
+      <c r="A709" s="5"/>
+      <c r="G709" s="5"/>
+      <c r="H709" s="5"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="3"/>
-      <c r="G710" s="3"/>
-      <c r="H710" s="3"/>
+      <c r="A710" s="5"/>
+      <c r="G710" s="5"/>
+      <c r="H710" s="5"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="3"/>
-      <c r="G711" s="3"/>
-      <c r="H711" s="3"/>
+      <c r="A711" s="5"/>
+      <c r="G711" s="5"/>
+      <c r="H711" s="5"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="3"/>
-      <c r="G712" s="3"/>
-      <c r="H712" s="3"/>
+      <c r="A712" s="5"/>
+      <c r="G712" s="5"/>
+      <c r="H712" s="5"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="3"/>
-      <c r="G713" s="3"/>
-      <c r="H713" s="3"/>
+      <c r="A713" s="5"/>
+      <c r="G713" s="5"/>
+      <c r="H713" s="5"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="3"/>
-      <c r="G714" s="3"/>
-      <c r="H714" s="3"/>
+      <c r="A714" s="5"/>
+      <c r="G714" s="5"/>
+      <c r="H714" s="5"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="3"/>
-      <c r="G715" s="3"/>
-      <c r="H715" s="3"/>
+      <c r="A715" s="5"/>
+      <c r="G715" s="5"/>
+      <c r="H715" s="5"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="3"/>
-      <c r="G716" s="3"/>
-      <c r="H716" s="3"/>
+      <c r="A716" s="5"/>
+      <c r="G716" s="5"/>
+      <c r="H716" s="5"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="3"/>
-      <c r="G717" s="3"/>
-      <c r="H717" s="3"/>
+      <c r="A717" s="5"/>
+      <c r="G717" s="5"/>
+      <c r="H717" s="5"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="3"/>
-      <c r="G718" s="3"/>
-      <c r="H718" s="3"/>
+      <c r="A718" s="5"/>
+      <c r="G718" s="5"/>
+      <c r="H718" s="5"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="3"/>
-      <c r="G719" s="3"/>
-      <c r="H719" s="3"/>
+      <c r="A719" s="5"/>
+      <c r="G719" s="5"/>
+      <c r="H719" s="5"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="3"/>
-      <c r="G720" s="3"/>
-      <c r="H720" s="3"/>
+      <c r="A720" s="5"/>
+      <c r="G720" s="5"/>
+      <c r="H720" s="5"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="3"/>
-      <c r="G721" s="3"/>
-      <c r="H721" s="3"/>
+      <c r="A721" s="5"/>
+      <c r="G721" s="5"/>
+      <c r="H721" s="5"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="3"/>
-      <c r="G722" s="3"/>
-      <c r="H722" s="3"/>
+      <c r="A722" s="5"/>
+      <c r="G722" s="5"/>
+      <c r="H722" s="5"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="3"/>
-      <c r="G723" s="3"/>
-      <c r="H723" s="3"/>
+      <c r="A723" s="5"/>
+      <c r="G723" s="5"/>
+      <c r="H723" s="5"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="3"/>
-      <c r="G724" s="3"/>
-      <c r="H724" s="3"/>
+      <c r="A724" s="5"/>
+      <c r="G724" s="5"/>
+      <c r="H724" s="5"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="3"/>
-      <c r="G725" s="3"/>
-      <c r="H725" s="3"/>
+      <c r="A725" s="5"/>
+      <c r="G725" s="5"/>
+      <c r="H725" s="5"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="3"/>
-      <c r="G726" s="3"/>
-      <c r="H726" s="3"/>
+      <c r="A726" s="5"/>
+      <c r="G726" s="5"/>
+      <c r="H726" s="5"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="3"/>
-      <c r="G727" s="3"/>
-      <c r="H727" s="3"/>
+      <c r="A727" s="5"/>
+      <c r="G727" s="5"/>
+      <c r="H727" s="5"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="3"/>
-      <c r="G728" s="3"/>
-      <c r="H728" s="3"/>
+      <c r="A728" s="5"/>
+      <c r="G728" s="5"/>
+      <c r="H728" s="5"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="3"/>
-      <c r="G729" s="3"/>
-      <c r="H729" s="3"/>
+      <c r="A729" s="5"/>
+      <c r="G729" s="5"/>
+      <c r="H729" s="5"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="3"/>
-      <c r="G730" s="3"/>
-      <c r="H730" s="3"/>
+      <c r="A730" s="5"/>
+      <c r="G730" s="5"/>
+      <c r="H730" s="5"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="3"/>
-      <c r="G731" s="3"/>
-      <c r="H731" s="3"/>
+      <c r="A731" s="5"/>
+      <c r="G731" s="5"/>
+      <c r="H731" s="5"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="3"/>
-      <c r="G732" s="3"/>
-      <c r="H732" s="3"/>
+      <c r="A732" s="5"/>
+      <c r="G732" s="5"/>
+      <c r="H732" s="5"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="3"/>
-      <c r="G733" s="3"/>
-      <c r="H733" s="3"/>
+      <c r="A733" s="5"/>
+      <c r="G733" s="5"/>
+      <c r="H733" s="5"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="3"/>
-      <c r="G734" s="3"/>
-      <c r="H734" s="3"/>
+      <c r="A734" s="5"/>
+      <c r="G734" s="5"/>
+      <c r="H734" s="5"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="3"/>
-      <c r="G735" s="3"/>
-      <c r="H735" s="3"/>
+      <c r="A735" s="5"/>
+      <c r="G735" s="5"/>
+      <c r="H735" s="5"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="3"/>
-      <c r="G736" s="3"/>
-      <c r="H736" s="3"/>
+      <c r="A736" s="5"/>
+      <c r="G736" s="5"/>
+      <c r="H736" s="5"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="3"/>
-      <c r="G737" s="3"/>
-      <c r="H737" s="3"/>
+      <c r="A737" s="5"/>
+      <c r="G737" s="5"/>
+      <c r="H737" s="5"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="3"/>
-      <c r="G738" s="3"/>
-      <c r="H738" s="3"/>
+      <c r="A738" s="5"/>
+      <c r="G738" s="5"/>
+      <c r="H738" s="5"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="3"/>
-      <c r="G739" s="3"/>
-      <c r="H739" s="3"/>
+      <c r="A739" s="5"/>
+      <c r="G739" s="5"/>
+      <c r="H739" s="5"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="3"/>
-      <c r="G740" s="3"/>
-      <c r="H740" s="3"/>
+      <c r="A740" s="5"/>
+      <c r="G740" s="5"/>
+      <c r="H740" s="5"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="3"/>
-      <c r="G741" s="3"/>
-      <c r="H741" s="3"/>
+      <c r="A741" s="5"/>
+      <c r="G741" s="5"/>
+      <c r="H741" s="5"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="3"/>
-      <c r="G742" s="3"/>
-      <c r="H742" s="3"/>
+      <c r="A742" s="5"/>
+      <c r="G742" s="5"/>
+      <c r="H742" s="5"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="3"/>
-      <c r="G743" s="3"/>
-      <c r="H743" s="3"/>
+      <c r="A743" s="5"/>
+      <c r="G743" s="5"/>
+      <c r="H743" s="5"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="3"/>
-      <c r="G744" s="3"/>
-      <c r="H744" s="3"/>
+      <c r="A744" s="5"/>
+      <c r="G744" s="5"/>
+      <c r="H744" s="5"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="3"/>
-      <c r="G745" s="3"/>
-      <c r="H745" s="3"/>
+      <c r="A745" s="5"/>
+      <c r="G745" s="5"/>
+      <c r="H745" s="5"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="3"/>
-      <c r="G746" s="3"/>
-      <c r="H746" s="3"/>
+      <c r="A746" s="5"/>
+      <c r="G746" s="5"/>
+      <c r="H746" s="5"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="3"/>
-      <c r="G747" s="3"/>
-      <c r="H747" s="3"/>
+      <c r="A747" s="5"/>
+      <c r="G747" s="5"/>
+      <c r="H747" s="5"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="3"/>
-      <c r="G748" s="3"/>
-      <c r="H748" s="3"/>
+      <c r="A748" s="5"/>
+      <c r="G748" s="5"/>
+      <c r="H748" s="5"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="3"/>
-      <c r="G749" s="3"/>
-      <c r="H749" s="3"/>
+      <c r="A749" s="5"/>
+      <c r="G749" s="5"/>
+      <c r="H749" s="5"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="3"/>
-      <c r="G750" s="3"/>
-      <c r="H750" s="3"/>
+      <c r="A750" s="5"/>
+      <c r="G750" s="5"/>
+      <c r="H750" s="5"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="3"/>
-      <c r="G751" s="3"/>
-      <c r="H751" s="3"/>
+      <c r="A751" s="5"/>
+      <c r="G751" s="5"/>
+      <c r="H751" s="5"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="3"/>
-      <c r="G752" s="3"/>
-      <c r="H752" s="3"/>
+      <c r="A752" s="5"/>
+      <c r="G752" s="5"/>
+      <c r="H752" s="5"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="3"/>
-      <c r="G753" s="3"/>
-      <c r="H753" s="3"/>
+      <c r="A753" s="5"/>
+      <c r="G753" s="5"/>
+      <c r="H753" s="5"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="3"/>
-      <c r="G754" s="3"/>
-      <c r="H754" s="3"/>
+      <c r="A754" s="5"/>
+      <c r="G754" s="5"/>
+      <c r="H754" s="5"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="3"/>
-      <c r="G755" s="3"/>
-      <c r="H755" s="3"/>
+      <c r="A755" s="5"/>
+      <c r="G755" s="5"/>
+      <c r="H755" s="5"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="3"/>
-      <c r="G756" s="3"/>
-      <c r="H756" s="3"/>
+      <c r="A756" s="5"/>
+      <c r="G756" s="5"/>
+      <c r="H756" s="5"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="3"/>
-      <c r="G757" s="3"/>
-      <c r="H757" s="3"/>
+      <c r="A757" s="5"/>
+      <c r="G757" s="5"/>
+      <c r="H757" s="5"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="3"/>
-      <c r="G758" s="3"/>
-      <c r="H758" s="3"/>
+      <c r="A758" s="5"/>
+      <c r="G758" s="5"/>
+      <c r="H758" s="5"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="3"/>
-      <c r="G759" s="3"/>
-      <c r="H759" s="3"/>
+      <c r="A759" s="5"/>
+      <c r="G759" s="5"/>
+      <c r="H759" s="5"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="3"/>
-      <c r="G760" s="3"/>
-      <c r="H760" s="3"/>
+      <c r="A760" s="5"/>
+      <c r="G760" s="5"/>
+      <c r="H760" s="5"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="3"/>
-      <c r="G761" s="3"/>
-      <c r="H761" s="3"/>
+      <c r="A761" s="5"/>
+      <c r="G761" s="5"/>
+      <c r="H761" s="5"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="3"/>
-      <c r="G762" s="3"/>
-      <c r="H762" s="3"/>
+      <c r="A762" s="5"/>
+      <c r="G762" s="5"/>
+      <c r="H762" s="5"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="3"/>
-      <c r="G763" s="3"/>
-      <c r="H763" s="3"/>
+      <c r="A763" s="5"/>
+      <c r="G763" s="5"/>
+      <c r="H763" s="5"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="3"/>
-      <c r="G764" s="3"/>
-      <c r="H764" s="3"/>
+      <c r="A764" s="5"/>
+      <c r="G764" s="5"/>
+      <c r="H764" s="5"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="3"/>
-      <c r="G765" s="3"/>
-      <c r="H765" s="3"/>
+      <c r="A765" s="5"/>
+      <c r="G765" s="5"/>
+      <c r="H765" s="5"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="3"/>
-      <c r="G766" s="3"/>
-      <c r="H766" s="3"/>
+      <c r="A766" s="5"/>
+      <c r="G766" s="5"/>
+      <c r="H766" s="5"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="3"/>
-      <c r="G767" s="3"/>
-      <c r="H767" s="3"/>
+      <c r="A767" s="5"/>
+      <c r="G767" s="5"/>
+      <c r="H767" s="5"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="3"/>
-      <c r="G768" s="3"/>
-      <c r="H768" s="3"/>
+      <c r="A768" s="5"/>
+      <c r="G768" s="5"/>
+      <c r="H768" s="5"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="3"/>
-      <c r="G769" s="3"/>
-      <c r="H769" s="3"/>
+      <c r="A769" s="5"/>
+      <c r="G769" s="5"/>
+      <c r="H769" s="5"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="3"/>
-      <c r="G770" s="3"/>
-      <c r="H770" s="3"/>
+      <c r="A770" s="5"/>
+      <c r="G770" s="5"/>
+      <c r="H770" s="5"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="3"/>
-      <c r="G771" s="3"/>
-      <c r="H771" s="3"/>
+      <c r="A771" s="5"/>
+      <c r="G771" s="5"/>
+      <c r="H771" s="5"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="3"/>
-      <c r="G772" s="3"/>
-      <c r="H772" s="3"/>
+      <c r="A772" s="5"/>
+      <c r="G772" s="5"/>
+      <c r="H772" s="5"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="3"/>
-      <c r="G773" s="3"/>
-      <c r="H773" s="3"/>
+      <c r="A773" s="5"/>
+      <c r="G773" s="5"/>
+      <c r="H773" s="5"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="3"/>
-      <c r="G774" s="3"/>
-      <c r="H774" s="3"/>
+      <c r="A774" s="5"/>
+      <c r="G774" s="5"/>
+      <c r="H774" s="5"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="3"/>
-      <c r="G775" s="3"/>
-      <c r="H775" s="3"/>
+      <c r="A775" s="5"/>
+      <c r="G775" s="5"/>
+      <c r="H775" s="5"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="3"/>
-      <c r="G776" s="3"/>
-      <c r="H776" s="3"/>
+      <c r="A776" s="5"/>
+      <c r="G776" s="5"/>
+      <c r="H776" s="5"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="3"/>
-      <c r="G777" s="3"/>
-      <c r="H777" s="3"/>
+      <c r="A777" s="5"/>
+      <c r="G777" s="5"/>
+      <c r="H777" s="5"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="3"/>
-      <c r="G778" s="3"/>
-      <c r="H778" s="3"/>
+      <c r="A778" s="5"/>
+      <c r="G778" s="5"/>
+      <c r="H778" s="5"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="3"/>
-      <c r="G779" s="3"/>
-      <c r="H779" s="3"/>
+      <c r="A779" s="5"/>
+      <c r="G779" s="5"/>
+      <c r="H779" s="5"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="3"/>
-      <c r="G780" s="3"/>
-      <c r="H780" s="3"/>
+      <c r="A780" s="5"/>
+      <c r="G780" s="5"/>
+      <c r="H780" s="5"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="3"/>
-      <c r="G781" s="3"/>
-      <c r="H781" s="3"/>
+      <c r="A781" s="5"/>
+      <c r="G781" s="5"/>
+      <c r="H781" s="5"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="3"/>
-      <c r="G782" s="3"/>
-      <c r="H782" s="3"/>
+      <c r="A782" s="5"/>
+      <c r="G782" s="5"/>
+      <c r="H782" s="5"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="3"/>
-      <c r="G783" s="3"/>
-      <c r="H783" s="3"/>
+      <c r="A783" s="5"/>
+      <c r="G783" s="5"/>
+      <c r="H783" s="5"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="3"/>
-      <c r="G784" s="3"/>
-      <c r="H784" s="3"/>
+      <c r="A784" s="5"/>
+      <c r="G784" s="5"/>
+      <c r="H784" s="5"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="3"/>
-      <c r="G785" s="3"/>
-      <c r="H785" s="3"/>
+      <c r="A785" s="5"/>
+      <c r="G785" s="5"/>
+      <c r="H785" s="5"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="3"/>
-      <c r="G786" s="3"/>
-      <c r="H786" s="3"/>
+      <c r="A786" s="5"/>
+      <c r="G786" s="5"/>
+      <c r="H786" s="5"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="3"/>
-      <c r="G787" s="3"/>
-      <c r="H787" s="3"/>
+      <c r="A787" s="5"/>
+      <c r="G787" s="5"/>
+      <c r="H787" s="5"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="3"/>
-      <c r="G788" s="3"/>
-      <c r="H788" s="3"/>
+      <c r="A788" s="5"/>
+      <c r="G788" s="5"/>
+      <c r="H788" s="5"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="3"/>
-      <c r="G789" s="3"/>
-      <c r="H789" s="3"/>
+      <c r="A789" s="5"/>
+      <c r="G789" s="5"/>
+      <c r="H789" s="5"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="3"/>
-      <c r="G790" s="3"/>
-      <c r="H790" s="3"/>
+      <c r="A790" s="5"/>
+      <c r="G790" s="5"/>
+      <c r="H790" s="5"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="3"/>
-      <c r="G791" s="3"/>
-      <c r="H791" s="3"/>
+      <c r="A791" s="5"/>
+      <c r="G791" s="5"/>
+      <c r="H791" s="5"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="3"/>
-      <c r="G792" s="3"/>
-      <c r="H792" s="3"/>
+      <c r="A792" s="5"/>
+      <c r="G792" s="5"/>
+      <c r="H792" s="5"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="3"/>
-      <c r="G793" s="3"/>
-      <c r="H793" s="3"/>
+      <c r="A793" s="5"/>
+      <c r="G793" s="5"/>
+      <c r="H793" s="5"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="3"/>
-      <c r="G794" s="3"/>
-      <c r="H794" s="3"/>
+      <c r="A794" s="5"/>
+      <c r="G794" s="5"/>
+      <c r="H794" s="5"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="3"/>
-      <c r="G795" s="3"/>
-      <c r="H795" s="3"/>
+      <c r="A795" s="5"/>
+      <c r="G795" s="5"/>
+      <c r="H795" s="5"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="3"/>
-      <c r="G796" s="3"/>
-      <c r="H796" s="3"/>
+      <c r="A796" s="5"/>
+      <c r="G796" s="5"/>
+      <c r="H796" s="5"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="3"/>
-      <c r="G797" s="3"/>
-      <c r="H797" s="3"/>
+      <c r="A797" s="5"/>
+      <c r="G797" s="5"/>
+      <c r="H797" s="5"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="3"/>
-      <c r="G798" s="3"/>
-      <c r="H798" s="3"/>
+      <c r="A798" s="5"/>
+      <c r="G798" s="5"/>
+      <c r="H798" s="5"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="3"/>
-      <c r="G799" s="3"/>
-      <c r="H799" s="3"/>
+      <c r="A799" s="5"/>
+      <c r="G799" s="5"/>
+      <c r="H799" s="5"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="3"/>
-      <c r="G800" s="3"/>
-      <c r="H800" s="3"/>
+      <c r="A800" s="5"/>
+      <c r="G800" s="5"/>
+      <c r="H800" s="5"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="3"/>
-      <c r="G801" s="3"/>
-      <c r="H801" s="3"/>
+      <c r="A801" s="5"/>
+      <c r="G801" s="5"/>
+      <c r="H801" s="5"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="3"/>
-      <c r="G802" s="3"/>
-      <c r="H802" s="3"/>
+      <c r="A802" s="5"/>
+      <c r="G802" s="5"/>
+      <c r="H802" s="5"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="3"/>
-      <c r="G803" s="3"/>
-      <c r="H803" s="3"/>
+      <c r="A803" s="5"/>
+      <c r="G803" s="5"/>
+      <c r="H803" s="5"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="3"/>
-      <c r="G804" s="3"/>
-      <c r="H804" s="3"/>
+      <c r="A804" s="5"/>
+      <c r="G804" s="5"/>
+      <c r="H804" s="5"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="3"/>
-      <c r="G805" s="3"/>
-      <c r="H805" s="3"/>
+      <c r="A805" s="5"/>
+      <c r="G805" s="5"/>
+      <c r="H805" s="5"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="3"/>
-      <c r="G806" s="3"/>
-      <c r="H806" s="3"/>
+      <c r="A806" s="5"/>
+      <c r="G806" s="5"/>
+      <c r="H806" s="5"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="3"/>
-      <c r="G807" s="3"/>
-      <c r="H807" s="3"/>
+      <c r="A807" s="5"/>
+      <c r="G807" s="5"/>
+      <c r="H807" s="5"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="3"/>
-      <c r="G808" s="3"/>
-      <c r="H808" s="3"/>
+      <c r="A808" s="5"/>
+      <c r="G808" s="5"/>
+      <c r="H808" s="5"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="3"/>
-      <c r="G809" s="3"/>
-      <c r="H809" s="3"/>
+      <c r="A809" s="5"/>
+      <c r="G809" s="5"/>
+      <c r="H809" s="5"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="3"/>
-      <c r="G810" s="3"/>
-      <c r="H810" s="3"/>
+      <c r="A810" s="5"/>
+      <c r="G810" s="5"/>
+      <c r="H810" s="5"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="3"/>
-      <c r="G811" s="3"/>
-      <c r="H811" s="3"/>
+      <c r="A811" s="5"/>
+      <c r="G811" s="5"/>
+      <c r="H811" s="5"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="3"/>
-      <c r="G812" s="3"/>
-      <c r="H812" s="3"/>
+      <c r="A812" s="5"/>
+      <c r="G812" s="5"/>
+      <c r="H812" s="5"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="3"/>
-      <c r="G813" s="3"/>
-      <c r="H813" s="3"/>
+      <c r="A813" s="5"/>
+      <c r="G813" s="5"/>
+      <c r="H813" s="5"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="3"/>
-      <c r="G814" s="3"/>
-      <c r="H814" s="3"/>
+      <c r="A814" s="5"/>
+      <c r="G814" s="5"/>
+      <c r="H814" s="5"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="3"/>
-      <c r="G815" s="3"/>
-      <c r="H815" s="3"/>
+      <c r="A815" s="5"/>
+      <c r="G815" s="5"/>
+      <c r="H815" s="5"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="3"/>
-      <c r="G816" s="3"/>
-      <c r="H816" s="3"/>
+      <c r="A816" s="5"/>
+      <c r="G816" s="5"/>
+      <c r="H816" s="5"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="3"/>
-      <c r="G817" s="3"/>
-      <c r="H817" s="3"/>
+      <c r="A817" s="5"/>
+      <c r="G817" s="5"/>
+      <c r="H817" s="5"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="3"/>
-      <c r="G818" s="3"/>
-      <c r="H818" s="3"/>
+      <c r="A818" s="5"/>
+      <c r="G818" s="5"/>
+      <c r="H818" s="5"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="3"/>
-      <c r="G819" s="3"/>
-      <c r="H819" s="3"/>
+      <c r="A819" s="5"/>
+      <c r="G819" s="5"/>
+      <c r="H819" s="5"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="3"/>
-      <c r="G820" s="3"/>
-      <c r="H820" s="3"/>
+      <c r="A820" s="5"/>
+      <c r="G820" s="5"/>
+      <c r="H820" s="5"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="3"/>
-      <c r="G821" s="3"/>
-      <c r="H821" s="3"/>
+      <c r="A821" s="5"/>
+      <c r="G821" s="5"/>
+      <c r="H821" s="5"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="3"/>
-      <c r="G822" s="3"/>
-      <c r="H822" s="3"/>
+      <c r="A822" s="5"/>
+      <c r="G822" s="5"/>
+      <c r="H822" s="5"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="3"/>
-      <c r="G823" s="3"/>
-      <c r="H823" s="3"/>
+      <c r="A823" s="5"/>
+      <c r="G823" s="5"/>
+      <c r="H823" s="5"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="3"/>
-      <c r="G824" s="3"/>
-      <c r="H824" s="3"/>
+      <c r="A824" s="5"/>
+      <c r="G824" s="5"/>
+      <c r="H824" s="5"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="3"/>
-      <c r="G825" s="3"/>
-      <c r="H825" s="3"/>
+      <c r="A825" s="5"/>
+      <c r="G825" s="5"/>
+      <c r="H825" s="5"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="3"/>
-      <c r="G826" s="3"/>
-      <c r="H826" s="3"/>
+      <c r="A826" s="5"/>
+      <c r="G826" s="5"/>
+      <c r="H826" s="5"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="3"/>
-      <c r="G827" s="3"/>
-      <c r="H827" s="3"/>
+      <c r="A827" s="5"/>
+      <c r="G827" s="5"/>
+      <c r="H827" s="5"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="3"/>
-      <c r="G828" s="3"/>
-      <c r="H828" s="3"/>
+      <c r="A828" s="5"/>
+      <c r="G828" s="5"/>
+      <c r="H828" s="5"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="3"/>
-      <c r="G829" s="3"/>
-      <c r="H829" s="3"/>
+      <c r="A829" s="5"/>
+      <c r="G829" s="5"/>
+      <c r="H829" s="5"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="3"/>
-      <c r="G830" s="3"/>
-      <c r="H830" s="3"/>
+      <c r="A830" s="5"/>
+      <c r="G830" s="5"/>
+      <c r="H830" s="5"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="3"/>
-      <c r="G831" s="3"/>
-      <c r="H831" s="3"/>
+      <c r="A831" s="5"/>
+      <c r="G831" s="5"/>
+      <c r="H831" s="5"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="3"/>
-      <c r="G832" s="3"/>
-      <c r="H832" s="3"/>
+      <c r="A832" s="5"/>
+      <c r="G832" s="5"/>
+      <c r="H832" s="5"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="3"/>
-      <c r="G833" s="3"/>
-      <c r="H833" s="3"/>
+      <c r="A833" s="5"/>
+      <c r="G833" s="5"/>
+      <c r="H833" s="5"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="3"/>
-      <c r="G834" s="3"/>
-      <c r="H834" s="3"/>
+      <c r="A834" s="5"/>
+      <c r="G834" s="5"/>
+      <c r="H834" s="5"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="3"/>
-      <c r="G835" s="3"/>
-      <c r="H835" s="3"/>
+      <c r="A835" s="5"/>
+      <c r="G835" s="5"/>
+      <c r="H835" s="5"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="3"/>
-      <c r="G836" s="3"/>
-      <c r="H836" s="3"/>
+      <c r="A836" s="5"/>
+      <c r="G836" s="5"/>
+      <c r="H836" s="5"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="3"/>
-      <c r="G837" s="3"/>
-      <c r="H837" s="3"/>
+      <c r="A837" s="5"/>
+      <c r="G837" s="5"/>
+      <c r="H837" s="5"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="3"/>
-      <c r="G838" s="3"/>
-      <c r="H838" s="3"/>
+      <c r="A838" s="5"/>
+      <c r="G838" s="5"/>
+      <c r="H838" s="5"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="3"/>
-      <c r="G839" s="3"/>
-      <c r="H839" s="3"/>
+      <c r="A839" s="5"/>
+      <c r="G839" s="5"/>
+      <c r="H839" s="5"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="3"/>
-      <c r="G840" s="3"/>
-      <c r="H840" s="3"/>
+      <c r="A840" s="5"/>
+      <c r="G840" s="5"/>
+      <c r="H840" s="5"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="3"/>
-      <c r="G841" s="3"/>
-      <c r="H841" s="3"/>
+      <c r="A841" s="5"/>
+      <c r="G841" s="5"/>
+      <c r="H841" s="5"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="3"/>
-      <c r="G842" s="3"/>
-      <c r="H842" s="3"/>
+      <c r="A842" s="5"/>
+      <c r="G842" s="5"/>
+      <c r="H842" s="5"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="3"/>
-      <c r="G843" s="3"/>
-      <c r="H843" s="3"/>
+      <c r="A843" s="5"/>
+      <c r="G843" s="5"/>
+      <c r="H843" s="5"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="3"/>
-      <c r="G844" s="3"/>
-      <c r="H844" s="3"/>
+      <c r="A844" s="5"/>
+      <c r="G844" s="5"/>
+      <c r="H844" s="5"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="3"/>
-      <c r="G845" s="3"/>
-      <c r="H845" s="3"/>
+      <c r="A845" s="5"/>
+      <c r="G845" s="5"/>
+      <c r="H845" s="5"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="3"/>
-      <c r="G846" s="3"/>
-      <c r="H846" s="3"/>
+      <c r="A846" s="5"/>
+      <c r="G846" s="5"/>
+      <c r="H846" s="5"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="3"/>
-      <c r="G847" s="3"/>
-      <c r="H847" s="3"/>
+      <c r="A847" s="5"/>
+      <c r="G847" s="5"/>
+      <c r="H847" s="5"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="3"/>
-      <c r="G848" s="3"/>
-      <c r="H848" s="3"/>
+      <c r="A848" s="5"/>
+      <c r="G848" s="5"/>
+      <c r="H848" s="5"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="3"/>
-      <c r="G849" s="3"/>
-      <c r="H849" s="3"/>
+      <c r="A849" s="5"/>
+      <c r="G849" s="5"/>
+      <c r="H849" s="5"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="3"/>
-      <c r="G850" s="3"/>
-      <c r="H850" s="3"/>
+      <c r="A850" s="5"/>
+      <c r="G850" s="5"/>
+      <c r="H850" s="5"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="3"/>
-      <c r="G851" s="3"/>
-      <c r="H851" s="3"/>
+      <c r="A851" s="5"/>
+      <c r="G851" s="5"/>
+      <c r="H851" s="5"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="3"/>
-      <c r="G852" s="3"/>
-      <c r="H852" s="3"/>
+      <c r="A852" s="5"/>
+      <c r="G852" s="5"/>
+      <c r="H852" s="5"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="3"/>
-      <c r="G853" s="3"/>
-      <c r="H853" s="3"/>
+      <c r="A853" s="5"/>
+      <c r="G853" s="5"/>
+      <c r="H853" s="5"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="3"/>
-      <c r="G854" s="3"/>
-      <c r="H854" s="3"/>
+      <c r="A854" s="5"/>
+      <c r="G854" s="5"/>
+      <c r="H854" s="5"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="3"/>
-      <c r="G855" s="3"/>
-      <c r="H855" s="3"/>
+      <c r="A855" s="5"/>
+      <c r="G855" s="5"/>
+      <c r="H855" s="5"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="3"/>
-      <c r="G856" s="3"/>
-      <c r="H856" s="3"/>
+      <c r="A856" s="5"/>
+      <c r="G856" s="5"/>
+      <c r="H856" s="5"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="3"/>
-      <c r="G857" s="3"/>
-      <c r="H857" s="3"/>
+      <c r="A857" s="5"/>
+      <c r="G857" s="5"/>
+      <c r="H857" s="5"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="3"/>
-      <c r="G858" s="3"/>
-      <c r="H858" s="3"/>
+      <c r="A858" s="5"/>
+      <c r="G858" s="5"/>
+      <c r="H858" s="5"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="3"/>
-      <c r="G859" s="3"/>
-      <c r="H859" s="3"/>
+      <c r="A859" s="5"/>
+      <c r="G859" s="5"/>
+      <c r="H859" s="5"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="3"/>
-      <c r="G860" s="3"/>
-      <c r="H860" s="3"/>
+      <c r="A860" s="5"/>
+      <c r="G860" s="5"/>
+      <c r="H860" s="5"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="3"/>
-      <c r="G861" s="3"/>
-      <c r="H861" s="3"/>
+      <c r="A861" s="5"/>
+      <c r="G861" s="5"/>
+      <c r="H861" s="5"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="3"/>
-      <c r="G862" s="3"/>
-      <c r="H862" s="3"/>
+      <c r="A862" s="5"/>
+      <c r="G862" s="5"/>
+      <c r="H862" s="5"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="3"/>
-      <c r="G863" s="3"/>
-      <c r="H863" s="3"/>
+      <c r="A863" s="5"/>
+      <c r="G863" s="5"/>
+      <c r="H863" s="5"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="3"/>
-      <c r="G864" s="3"/>
-      <c r="H864" s="3"/>
+      <c r="A864" s="5"/>
+      <c r="G864" s="5"/>
+      <c r="H864" s="5"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="3"/>
-      <c r="G865" s="3"/>
-      <c r="H865" s="3"/>
+      <c r="A865" s="5"/>
+      <c r="G865" s="5"/>
+      <c r="H865" s="5"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="3"/>
-      <c r="G866" s="3"/>
-      <c r="H866" s="3"/>
+      <c r="A866" s="5"/>
+      <c r="G866" s="5"/>
+      <c r="H866" s="5"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="3"/>
-      <c r="G867" s="3"/>
-      <c r="H867" s="3"/>
+      <c r="A867" s="5"/>
+      <c r="G867" s="5"/>
+      <c r="H867" s="5"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="3"/>
-      <c r="G868" s="3"/>
-      <c r="H868" s="3"/>
+      <c r="A868" s="5"/>
+      <c r="G868" s="5"/>
+      <c r="H868" s="5"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="3"/>
-      <c r="G869" s="3"/>
-      <c r="H869" s="3"/>
+      <c r="A869" s="5"/>
+      <c r="G869" s="5"/>
+      <c r="H869" s="5"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="3"/>
-      <c r="G870" s="3"/>
-      <c r="H870" s="3"/>
+      <c r="A870" s="5"/>
+      <c r="G870" s="5"/>
+      <c r="H870" s="5"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="3"/>
-      <c r="G871" s="3"/>
-      <c r="H871" s="3"/>
+      <c r="A871" s="5"/>
+      <c r="G871" s="5"/>
+      <c r="H871" s="5"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="3"/>
-      <c r="G872" s="3"/>
-      <c r="H872" s="3"/>
+      <c r="A872" s="5"/>
+      <c r="G872" s="5"/>
+      <c r="H872" s="5"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="3"/>
-      <c r="G873" s="3"/>
-      <c r="H873" s="3"/>
+      <c r="A873" s="5"/>
+      <c r="G873" s="5"/>
+      <c r="H873" s="5"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="3"/>
-      <c r="G874" s="3"/>
-      <c r="H874" s="3"/>
+      <c r="A874" s="5"/>
+      <c r="G874" s="5"/>
+      <c r="H874" s="5"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="3"/>
-      <c r="G875" s="3"/>
-      <c r="H875" s="3"/>
+      <c r="A875" s="5"/>
+      <c r="G875" s="5"/>
+      <c r="H875" s="5"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="3"/>
-      <c r="G876" s="3"/>
-      <c r="H876" s="3"/>
+      <c r="A876" s="5"/>
+      <c r="G876" s="5"/>
+      <c r="H876" s="5"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="3"/>
-      <c r="G877" s="3"/>
-      <c r="H877" s="3"/>
+      <c r="A877" s="5"/>
+      <c r="G877" s="5"/>
+      <c r="H877" s="5"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="3"/>
-      <c r="G878" s="3"/>
-      <c r="H878" s="3"/>
+      <c r="A878" s="5"/>
+      <c r="G878" s="5"/>
+      <c r="H878" s="5"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="3"/>
-      <c r="G879" s="3"/>
-      <c r="H879" s="3"/>
+      <c r="A879" s="5"/>
+      <c r="G879" s="5"/>
+      <c r="H879" s="5"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="3"/>
-      <c r="G880" s="3"/>
-      <c r="H880" s="3"/>
+      <c r="A880" s="5"/>
+      <c r="G880" s="5"/>
+      <c r="H880" s="5"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="3"/>
-      <c r="G881" s="3"/>
-      <c r="H881" s="3"/>
+      <c r="A881" s="5"/>
+      <c r="G881" s="5"/>
+      <c r="H881" s="5"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="3"/>
-      <c r="G882" s="3"/>
-      <c r="H882" s="3"/>
+      <c r="A882" s="5"/>
+      <c r="G882" s="5"/>
+      <c r="H882" s="5"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="3"/>
-      <c r="G883" s="3"/>
-      <c r="H883" s="3"/>
+      <c r="A883" s="5"/>
+      <c r="G883" s="5"/>
+      <c r="H883" s="5"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="3"/>
-      <c r="G884" s="3"/>
-      <c r="H884" s="3"/>
+      <c r="A884" s="5"/>
+      <c r="G884" s="5"/>
+      <c r="H884" s="5"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="3"/>
-      <c r="G885" s="3"/>
-      <c r="H885" s="3"/>
+      <c r="A885" s="5"/>
+      <c r="G885" s="5"/>
+      <c r="H885" s="5"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="3"/>
-      <c r="G886" s="3"/>
-      <c r="H886" s="3"/>
+      <c r="A886" s="5"/>
+      <c r="G886" s="5"/>
+      <c r="H886" s="5"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="3"/>
-      <c r="G887" s="3"/>
-      <c r="H887" s="3"/>
+      <c r="A887" s="5"/>
+      <c r="G887" s="5"/>
+      <c r="H887" s="5"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="3"/>
-      <c r="G888" s="3"/>
-      <c r="H888" s="3"/>
+      <c r="A888" s="5"/>
+      <c r="G888" s="5"/>
+      <c r="H888" s="5"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="3"/>
-      <c r="G889" s="3"/>
-      <c r="H889" s="3"/>
+      <c r="A889" s="5"/>
+      <c r="G889" s="5"/>
+      <c r="H889" s="5"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="3"/>
-      <c r="G890" s="3"/>
-      <c r="H890" s="3"/>
+      <c r="A890" s="5"/>
+      <c r="G890" s="5"/>
+      <c r="H890" s="5"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="3"/>
-      <c r="G891" s="3"/>
-      <c r="H891" s="3"/>
+      <c r="A891" s="5"/>
+      <c r="G891" s="5"/>
+      <c r="H891" s="5"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="3"/>
-      <c r="G892" s="3"/>
-      <c r="H892" s="3"/>
+      <c r="A892" s="5"/>
+      <c r="G892" s="5"/>
+      <c r="H892" s="5"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="3"/>
-      <c r="G893" s="3"/>
-      <c r="H893" s="3"/>
+      <c r="A893" s="5"/>
+      <c r="G893" s="5"/>
+      <c r="H893" s="5"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="3"/>
-      <c r="G894" s="3"/>
-      <c r="H894" s="3"/>
+      <c r="A894" s="5"/>
+      <c r="G894" s="5"/>
+      <c r="H894" s="5"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="3"/>
-      <c r="G895" s="3"/>
-      <c r="H895" s="3"/>
+      <c r="A895" s="5"/>
+      <c r="G895" s="5"/>
+      <c r="H895" s="5"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="3"/>
-      <c r="G896" s="3"/>
-      <c r="H896" s="3"/>
+      <c r="A896" s="5"/>
+      <c r="G896" s="5"/>
+      <c r="H896" s="5"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="3"/>
-      <c r="G897" s="3"/>
-      <c r="H897" s="3"/>
+      <c r="A897" s="5"/>
+      <c r="G897" s="5"/>
+      <c r="H897" s="5"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="3"/>
-      <c r="G898" s="3"/>
-      <c r="H898" s="3"/>
+      <c r="A898" s="5"/>
+      <c r="G898" s="5"/>
+      <c r="H898" s="5"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="3"/>
-      <c r="G899" s="3"/>
-      <c r="H899" s="3"/>
+      <c r="A899" s="5"/>
+      <c r="G899" s="5"/>
+      <c r="H899" s="5"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="3"/>
-      <c r="G900" s="3"/>
-      <c r="H900" s="3"/>
+      <c r="A900" s="5"/>
+      <c r="G900" s="5"/>
+      <c r="H900" s="5"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="3"/>
-      <c r="G901" s="3"/>
-      <c r="H901" s="3"/>
+      <c r="A901" s="5"/>
+      <c r="G901" s="5"/>
+      <c r="H901" s="5"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="3"/>
-      <c r="G902" s="3"/>
-      <c r="H902" s="3"/>
+      <c r="A902" s="5"/>
+      <c r="G902" s="5"/>
+      <c r="H902" s="5"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="3"/>
-      <c r="G903" s="3"/>
-      <c r="H903" s="3"/>
+      <c r="A903" s="5"/>
+      <c r="G903" s="5"/>
+      <c r="H903" s="5"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="3"/>
-      <c r="G904" s="3"/>
-      <c r="H904" s="3"/>
+      <c r="A904" s="5"/>
+      <c r="G904" s="5"/>
+      <c r="H904" s="5"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="3"/>
-      <c r="G905" s="3"/>
-      <c r="H905" s="3"/>
+      <c r="A905" s="5"/>
+      <c r="G905" s="5"/>
+      <c r="H905" s="5"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="3"/>
-      <c r="G906" s="3"/>
-      <c r="H906" s="3"/>
+      <c r="A906" s="5"/>
+      <c r="G906" s="5"/>
+      <c r="H906" s="5"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="3"/>
-      <c r="G907" s="3"/>
-      <c r="H907" s="3"/>
+      <c r="A907" s="5"/>
+      <c r="G907" s="5"/>
+      <c r="H907" s="5"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="3"/>
-      <c r="G908" s="3"/>
-      <c r="H908" s="3"/>
+      <c r="A908" s="5"/>
+      <c r="G908" s="5"/>
+      <c r="H908" s="5"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="3"/>
-      <c r="G909" s="3"/>
-      <c r="H909" s="3"/>
+      <c r="A909" s="5"/>
+      <c r="G909" s="5"/>
+      <c r="H909" s="5"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="3"/>
-      <c r="G910" s="3"/>
-      <c r="H910" s="3"/>
+      <c r="A910" s="5"/>
+      <c r="G910" s="5"/>
+      <c r="H910" s="5"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="3"/>
-      <c r="G911" s="3"/>
-      <c r="H911" s="3"/>
+      <c r="A911" s="5"/>
+      <c r="G911" s="5"/>
+      <c r="H911" s="5"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="3"/>
-      <c r="G912" s="3"/>
-      <c r="H912" s="3"/>
+      <c r="A912" s="5"/>
+      <c r="G912" s="5"/>
+      <c r="H912" s="5"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="3"/>
-      <c r="G913" s="3"/>
-      <c r="H913" s="3"/>
+      <c r="A913" s="5"/>
+      <c r="G913" s="5"/>
+      <c r="H913" s="5"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="3"/>
-      <c r="G914" s="3"/>
-      <c r="H914" s="3"/>
+      <c r="A914" s="5"/>
+      <c r="G914" s="5"/>
+      <c r="H914" s="5"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="3"/>
-      <c r="G915" s="3"/>
-      <c r="H915" s="3"/>
+      <c r="A915" s="5"/>
+      <c r="G915" s="5"/>
+      <c r="H915" s="5"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="3"/>
-      <c r="G916" s="3"/>
-      <c r="H916" s="3"/>
+      <c r="A916" s="5"/>
+      <c r="G916" s="5"/>
+      <c r="H916" s="5"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="3"/>
-      <c r="G917" s="3"/>
-      <c r="H917" s="3"/>
+      <c r="A917" s="5"/>
+      <c r="G917" s="5"/>
+      <c r="H917" s="5"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="3"/>
-      <c r="G918" s="3"/>
-      <c r="H918" s="3"/>
+      <c r="A918" s="5"/>
+      <c r="G918" s="5"/>
+      <c r="H918" s="5"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="3"/>
-      <c r="G919" s="3"/>
-      <c r="H919" s="3"/>
+      <c r="A919" s="5"/>
+      <c r="G919" s="5"/>
+      <c r="H919" s="5"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="3"/>
-      <c r="G920" s="3"/>
-      <c r="H920" s="3"/>
+      <c r="A920" s="5"/>
+      <c r="G920" s="5"/>
+      <c r="H920" s="5"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="3"/>
-      <c r="G921" s="3"/>
-      <c r="H921" s="3"/>
+      <c r="A921" s="5"/>
+      <c r="G921" s="5"/>
+      <c r="H921" s="5"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="3"/>
-      <c r="G922" s="3"/>
-      <c r="H922" s="3"/>
+      <c r="A922" s="5"/>
+      <c r="G922" s="5"/>
+      <c r="H922" s="5"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="3"/>
-      <c r="G923" s="3"/>
-      <c r="H923" s="3"/>
+      <c r="A923" s="5"/>
+      <c r="G923" s="5"/>
+      <c r="H923" s="5"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="3"/>
-      <c r="G924" s="3"/>
-      <c r="H924" s="3"/>
+      <c r="A924" s="5"/>
+      <c r="G924" s="5"/>
+      <c r="H924" s="5"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="3"/>
-      <c r="G925" s="3"/>
-      <c r="H925" s="3"/>
+      <c r="A925" s="5"/>
+      <c r="G925" s="5"/>
+      <c r="H925" s="5"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="3"/>
-      <c r="G926" s="3"/>
-      <c r="H926" s="3"/>
+      <c r="A926" s="5"/>
+      <c r="G926" s="5"/>
+      <c r="H926" s="5"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="3"/>
-      <c r="G927" s="3"/>
-      <c r="H927" s="3"/>
+      <c r="A927" s="5"/>
+      <c r="G927" s="5"/>
+      <c r="H927" s="5"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="3"/>
-      <c r="G928" s="3"/>
-      <c r="H928" s="3"/>
+      <c r="A928" s="5"/>
+      <c r="G928" s="5"/>
+      <c r="H928" s="5"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="3"/>
-      <c r="G929" s="3"/>
-      <c r="H929" s="3"/>
+      <c r="A929" s="5"/>
+      <c r="G929" s="5"/>
+      <c r="H929" s="5"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="3"/>
-      <c r="G930" s="3"/>
-      <c r="H930" s="3"/>
+      <c r="A930" s="5"/>
+      <c r="G930" s="5"/>
+      <c r="H930" s="5"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="3"/>
-      <c r="G931" s="3"/>
-      <c r="H931" s="3"/>
+      <c r="A931" s="5"/>
+      <c r="G931" s="5"/>
+      <c r="H931" s="5"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="3"/>
-      <c r="G932" s="3"/>
-      <c r="H932" s="3"/>
+      <c r="A932" s="5"/>
+      <c r="G932" s="5"/>
+      <c r="H932" s="5"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="3"/>
-      <c r="G933" s="3"/>
-      <c r="H933" s="3"/>
+      <c r="A933" s="5"/>
+      <c r="G933" s="5"/>
+      <c r="H933" s="5"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="3"/>
-      <c r="G934" s="3"/>
-      <c r="H934" s="3"/>
+      <c r="A934" s="5"/>
+      <c r="G934" s="5"/>
+      <c r="H934" s="5"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="3"/>
-      <c r="G935" s="3"/>
-      <c r="H935" s="3"/>
+      <c r="A935" s="5"/>
+      <c r="G935" s="5"/>
+      <c r="H935" s="5"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="3"/>
-      <c r="G936" s="3"/>
-      <c r="H936" s="3"/>
+      <c r="A936" s="5"/>
+      <c r="G936" s="5"/>
+      <c r="H936" s="5"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="3"/>
-      <c r="G937" s="3"/>
-      <c r="H937" s="3"/>
+      <c r="A937" s="5"/>
+      <c r="G937" s="5"/>
+      <c r="H937" s="5"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="3"/>
-      <c r="G938" s="3"/>
-      <c r="H938" s="3"/>
+      <c r="A938" s="5"/>
+      <c r="G938" s="5"/>
+      <c r="H938" s="5"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="3"/>
-      <c r="G939" s="3"/>
-      <c r="H939" s="3"/>
+      <c r="A939" s="5"/>
+      <c r="G939" s="5"/>
+      <c r="H939" s="5"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="3"/>
-      <c r="G940" s="3"/>
-      <c r="H940" s="3"/>
+      <c r="A940" s="5"/>
+      <c r="G940" s="5"/>
+      <c r="H940" s="5"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="3"/>
-      <c r="G941" s="3"/>
-      <c r="H941" s="3"/>
+      <c r="A941" s="5"/>
+      <c r="G941" s="5"/>
+      <c r="H941" s="5"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="3"/>
-      <c r="G942" s="3"/>
-      <c r="H942" s="3"/>
+      <c r="A942" s="5"/>
+      <c r="G942" s="5"/>
+      <c r="H942" s="5"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="3"/>
-      <c r="G943" s="3"/>
-      <c r="H943" s="3"/>
+      <c r="A943" s="5"/>
+      <c r="G943" s="5"/>
+      <c r="H943" s="5"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="3"/>
-      <c r="G944" s="3"/>
-      <c r="H944" s="3"/>
+      <c r="A944" s="5"/>
+      <c r="G944" s="5"/>
+      <c r="H944" s="5"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="3"/>
-      <c r="G945" s="3"/>
-      <c r="H945" s="3"/>
+      <c r="A945" s="5"/>
+      <c r="G945" s="5"/>
+      <c r="H945" s="5"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="3"/>
-      <c r="G946" s="3"/>
-      <c r="H946" s="3"/>
+      <c r="A946" s="5"/>
+      <c r="G946" s="5"/>
+      <c r="H946" s="5"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="3"/>
-      <c r="G947" s="3"/>
-      <c r="H947" s="3"/>
+      <c r="A947" s="5"/>
+      <c r="G947" s="5"/>
+      <c r="H947" s="5"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="3"/>
-      <c r="G948" s="3"/>
-      <c r="H948" s="3"/>
+      <c r="A948" s="5"/>
+      <c r="G948" s="5"/>
+      <c r="H948" s="5"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="3"/>
-      <c r="G949" s="3"/>
-      <c r="H949" s="3"/>
+      <c r="A949" s="5"/>
+      <c r="G949" s="5"/>
+      <c r="H949" s="5"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="3"/>
-      <c r="G950" s="3"/>
-      <c r="H950" s="3"/>
+      <c r="A950" s="5"/>
+      <c r="G950" s="5"/>
+      <c r="H950" s="5"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="3"/>
-      <c r="G951" s="3"/>
-      <c r="H951" s="3"/>
+      <c r="A951" s="5"/>
+      <c r="G951" s="5"/>
+      <c r="H951" s="5"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="3"/>
-      <c r="G952" s="3"/>
-      <c r="H952" s="3"/>
+      <c r="A952" s="5"/>
+      <c r="G952" s="5"/>
+      <c r="H952" s="5"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="3"/>
-      <c r="G953" s="3"/>
-      <c r="H953" s="3"/>
+      <c r="A953" s="5"/>
+      <c r="G953" s="5"/>
+      <c r="H953" s="5"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="3"/>
-      <c r="G954" s="3"/>
-      <c r="H954" s="3"/>
+      <c r="A954" s="5"/>
+      <c r="G954" s="5"/>
+      <c r="H954" s="5"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="3"/>
-      <c r="G955" s="3"/>
-      <c r="H955" s="3"/>
+      <c r="A955" s="5"/>
+      <c r="G955" s="5"/>
+      <c r="H955" s="5"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="3"/>
-      <c r="G956" s="3"/>
-      <c r="H956" s="3"/>
+      <c r="A956" s="5"/>
+      <c r="G956" s="5"/>
+      <c r="H956" s="5"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="3"/>
-      <c r="G957" s="3"/>
-      <c r="H957" s="3"/>
+      <c r="A957" s="5"/>
+      <c r="G957" s="5"/>
+      <c r="H957" s="5"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="3"/>
-      <c r="G958" s="3"/>
-      <c r="H958" s="3"/>
+      <c r="A958" s="5"/>
+      <c r="G958" s="5"/>
+      <c r="H958" s="5"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="3"/>
-      <c r="G959" s="3"/>
-      <c r="H959" s="3"/>
+      <c r="A959" s="5"/>
+      <c r="G959" s="5"/>
+      <c r="H959" s="5"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="3"/>
-      <c r="G960" s="3"/>
-      <c r="H960" s="3"/>
+      <c r="A960" s="5"/>
+      <c r="G960" s="5"/>
+      <c r="H960" s="5"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="3"/>
-      <c r="G961" s="3"/>
-      <c r="H961" s="3"/>
+      <c r="A961" s="5"/>
+      <c r="G961" s="5"/>
+      <c r="H961" s="5"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="3"/>
-      <c r="G962" s="3"/>
-      <c r="H962" s="3"/>
+      <c r="A962" s="5"/>
+      <c r="G962" s="5"/>
+      <c r="H962" s="5"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="3"/>
-      <c r="G963" s="3"/>
-      <c r="H963" s="3"/>
+      <c r="A963" s="5"/>
+      <c r="G963" s="5"/>
+      <c r="H963" s="5"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="3"/>
-      <c r="G964" s="3"/>
-      <c r="H964" s="3"/>
+      <c r="A964" s="5"/>
+      <c r="G964" s="5"/>
+      <c r="H964" s="5"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="3"/>
-      <c r="G965" s="3"/>
-      <c r="H965" s="3"/>
+      <c r="A965" s="5"/>
+      <c r="G965" s="5"/>
+      <c r="H965" s="5"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="3"/>
-      <c r="G966" s="3"/>
-      <c r="H966" s="3"/>
+      <c r="A966" s="5"/>
+      <c r="G966" s="5"/>
+      <c r="H966" s="5"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="3"/>
-      <c r="G967" s="3"/>
-      <c r="H967" s="3"/>
+      <c r="A967" s="5"/>
+      <c r="G967" s="5"/>
+      <c r="H967" s="5"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="3"/>
-      <c r="G968" s="3"/>
-      <c r="H968" s="3"/>
+      <c r="A968" s="5"/>
+      <c r="G968" s="5"/>
+      <c r="H968" s="5"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="3"/>
-      <c r="G969" s="3"/>
-      <c r="H969" s="3"/>
+      <c r="A969" s="5"/>
+      <c r="G969" s="5"/>
+      <c r="H969" s="5"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="3"/>
-      <c r="G970" s="3"/>
-      <c r="H970" s="3"/>
+      <c r="A970" s="5"/>
+      <c r="G970" s="5"/>
+      <c r="H970" s="5"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="3"/>
-      <c r="G971" s="3"/>
-      <c r="H971" s="3"/>
+      <c r="A971" s="5"/>
+      <c r="G971" s="5"/>
+      <c r="H971" s="5"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="3"/>
-      <c r="G972" s="3"/>
-      <c r="H972" s="3"/>
+      <c r="A972" s="5"/>
+      <c r="G972" s="5"/>
+      <c r="H972" s="5"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="3"/>
-      <c r="G973" s="3"/>
-      <c r="H973" s="3"/>
+      <c r="A973" s="5"/>
+      <c r="G973" s="5"/>
+      <c r="H973" s="5"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="3"/>
-      <c r="G974" s="3"/>
-      <c r="H974" s="3"/>
+      <c r="A974" s="5"/>
+      <c r="G974" s="5"/>
+      <c r="H974" s="5"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="3"/>
-      <c r="G975" s="3"/>
-      <c r="H975" s="3"/>
+      <c r="A975" s="5"/>
+      <c r="G975" s="5"/>
+      <c r="H975" s="5"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="3"/>
-      <c r="G976" s="3"/>
-      <c r="H976" s="3"/>
+      <c r="A976" s="5"/>
+      <c r="G976" s="5"/>
+      <c r="H976" s="5"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="3"/>
-      <c r="G977" s="3"/>
-      <c r="H977" s="3"/>
+      <c r="A977" s="5"/>
+      <c r="G977" s="5"/>
+      <c r="H977" s="5"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="3"/>
-      <c r="G978" s="3"/>
-      <c r="H978" s="3"/>
+      <c r="A978" s="5"/>
+      <c r="G978" s="5"/>
+      <c r="H978" s="5"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="3"/>
-      <c r="G979" s="3"/>
-      <c r="H979" s="3"/>
+      <c r="A979" s="5"/>
+      <c r="G979" s="5"/>
+      <c r="H979" s="5"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="3"/>
-      <c r="G980" s="3"/>
-      <c r="H980" s="3"/>
+      <c r="A980" s="5"/>
+      <c r="G980" s="5"/>
+      <c r="H980" s="5"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="3"/>
-      <c r="G981" s="3"/>
-      <c r="H981" s="3"/>
+      <c r="A981" s="5"/>
+      <c r="G981" s="5"/>
+      <c r="H981" s="5"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="3"/>
-      <c r="G982" s="3"/>
-      <c r="H982" s="3"/>
+      <c r="A982" s="5"/>
+      <c r="G982" s="5"/>
+      <c r="H982" s="5"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
+      <c r="A983" s="5"/>
+      <c r="G983" s="5"/>
+      <c r="H983" s="5"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
+      <c r="A984" s="5"/>
+      <c r="G984" s="5"/>
+      <c r="H984" s="5"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
+      <c r="A985" s="5"/>
+      <c r="G985" s="5"/>
+      <c r="H985" s="5"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
+      <c r="A986" s="5"/>
+      <c r="G986" s="5"/>
+      <c r="H986" s="5"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
+      <c r="A987" s="5"/>
+      <c r="G987" s="5"/>
+      <c r="H987" s="5"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
+      <c r="A988" s="5"/>
+      <c r="G988" s="5"/>
+      <c r="H988" s="5"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="3"/>
-      <c r="G989" s="3"/>
-      <c r="H989" s="3"/>
+      <c r="A989" s="5"/>
+      <c r="G989" s="5"/>
+      <c r="H989" s="5"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="3"/>
-      <c r="G990" s="3"/>
-      <c r="H990" s="3"/>
+      <c r="A990" s="5"/>
+      <c r="G990" s="5"/>
+      <c r="H990" s="5"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="3"/>
-      <c r="G991" s="3"/>
-      <c r="H991" s="3"/>
+      <c r="A991" s="5"/>
+      <c r="G991" s="5"/>
+      <c r="H991" s="5"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="3"/>
-      <c r="G992" s="3"/>
-      <c r="H992" s="3"/>
+      <c r="A992" s="5"/>
+      <c r="G992" s="5"/>
+      <c r="H992" s="5"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="3"/>
-      <c r="G993" s="3"/>
-      <c r="H993" s="3"/>
+      <c r="A993" s="5"/>
+      <c r="G993" s="5"/>
+      <c r="H993" s="5"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
+      <c r="A994" s="5"/>
+      <c r="G994" s="5"/>
+      <c r="H994" s="5"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
+      <c r="A995" s="5"/>
+      <c r="G995" s="5"/>
+      <c r="H995" s="5"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
+      <c r="A996" s="5"/>
+      <c r="G996" s="5"/>
+      <c r="H996" s="5"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
+      <c r="A997" s="5"/>
+      <c r="G997" s="5"/>
+      <c r="H997" s="5"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
+      <c r="A998" s="5"/>
+      <c r="G998" s="5"/>
+      <c r="H998" s="5"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
+      <c r="A999" s="5"/>
+      <c r="G999" s="5"/>
+      <c r="H999" s="5"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
+      <c r="A1000" s="5"/>
+      <c r="G1000" s="5"/>
+      <c r="H1000" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
@@ -5435,15 +5475,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(G1))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H1000">
       <formula1>Configuraciones!$G$2:$G$13</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A1000">
+      <formula1>Configuraciones!$A$4:$A$7</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1000">
-      <formula1>Configuraciones!$D$2:$D$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A1000">
-      <formula1>Configuraciones!$A$4:$A$5</formula1>
+      <formula1>Configuraciones!$D$2:$D$6</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -5466,7 +5511,7 @@
     <col customWidth="1" min="1" max="1" width="21.38"/>
     <col customWidth="1" min="2" max="2" width="13.88"/>
     <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="18.25"/>
     <col customWidth="1" min="5" max="6" width="8.0"/>
     <col customWidth="1" min="7" max="7" width="24.13"/>
     <col customWidth="1" min="8" max="8" width="8.0"/>
@@ -5476,7 +5521,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5493,776 +5538,797 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>1.0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>2.0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>2.0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>2.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>3.0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>3.0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>4.0</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="2">
+      <c r="E5" s="3">
         <v>4.0</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5">
+      <c r="H5" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3">
         <v>5.0</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="G7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2">
+      <c r="B7" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4">
         <v>6.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
+      <c r="A8" s="4" t="s">
+        <v>29</v>
       </c>
-      <c r="H8" s="2">
+      <c r="B8" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4">
         <v>7.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="5"/>
-      <c r="G9" s="2" t="s">
-        <v>28</v>
+      <c r="G9" s="4" t="s">
+        <v>31</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
+      <c r="B10" s="7"/>
+      <c r="G10" s="4" t="s">
+        <v>32</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>9.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
+      <c r="B11" s="7"/>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>10.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="5"/>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
+      <c r="B12" s="7"/>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>11.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="5"/>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
+      <c r="B13" s="7"/>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>12.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="B22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="B26" s="5"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="5"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="5"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="5"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="B35" s="5"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="B36" s="5"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="B37" s="5"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="B38" s="5"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="B39" s="5"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="B40" s="5"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="B41" s="5"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="B42" s="5"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="B43" s="5"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="B44" s="5"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="B45" s="5"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="B46" s="5"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="5"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="B48" s="5"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="B50" s="5"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="B51" s="5"/>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="B52" s="5"/>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="B53" s="5"/>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="B54" s="5"/>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="B55" s="5"/>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="B56" s="5"/>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="B57" s="5"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="B58" s="5"/>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="B59" s="5"/>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="B60" s="5"/>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="B61" s="5"/>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="B62" s="5"/>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="B63" s="5"/>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="B64" s="5"/>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="B65" s="5"/>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="B66" s="5"/>
+      <c r="B66" s="7"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="B67" s="5"/>
+      <c r="B67" s="7"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="B68" s="5"/>
+      <c r="B68" s="7"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="B69" s="5"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="B70" s="5"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="B71" s="5"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="B72" s="5"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="B73" s="5"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="B74" s="5"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="B75" s="5"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="B76" s="5"/>
+      <c r="B76" s="7"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="B77" s="5"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="B78" s="5"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="B79" s="5"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="B80" s="5"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="B81" s="5"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="B82" s="5"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="B83" s="5"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="B84" s="5"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="B85" s="5"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="B86" s="5"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="B87" s="5"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="B88" s="5"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="B89" s="5"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="B90" s="5"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="B91" s="5"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="B92" s="5"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="B93" s="5"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="B94" s="5"/>
+      <c r="B94" s="7"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="B95" s="5"/>
+      <c r="B95" s="7"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="B96" s="5"/>
+      <c r="B96" s="7"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="B97" s="5"/>
+      <c r="B97" s="7"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="B98" s="5"/>
+      <c r="B98" s="7"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="B99" s="5"/>
+      <c r="B99" s="7"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="B100" s="5"/>
+      <c r="B100" s="7"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="B101" s="5"/>
+      <c r="B101" s="7"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="B102" s="5"/>
+      <c r="B102" s="7"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="B103" s="5"/>
+      <c r="B103" s="7"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="B104" s="5"/>
+      <c r="B104" s="7"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="B105" s="5"/>
+      <c r="B105" s="7"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="B106" s="5"/>
+      <c r="B106" s="7"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="7"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="B108" s="5"/>
+      <c r="B108" s="7"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="B109" s="5"/>
+      <c r="B109" s="7"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="B110" s="5"/>
+      <c r="B110" s="7"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="B111" s="5"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="B112" s="5"/>
+      <c r="B112" s="7"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="B113" s="5"/>
+      <c r="B113" s="7"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="B114" s="5"/>
+      <c r="B114" s="7"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="B115" s="5"/>
+      <c r="B115" s="7"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="B116" s="5"/>
+      <c r="B116" s="7"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="B117" s="5"/>
+      <c r="B117" s="7"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="B118" s="5"/>
+      <c r="B118" s="7"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="B119" s="5"/>
+      <c r="B119" s="7"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="B120" s="5"/>
+      <c r="B120" s="7"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="B121" s="5"/>
+      <c r="B121" s="7"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="B122" s="5"/>
+      <c r="B122" s="7"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="B123" s="5"/>
+      <c r="B123" s="7"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="B124" s="5"/>
+      <c r="B124" s="7"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="B125" s="5"/>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="B126" s="5"/>
+      <c r="B126" s="7"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="B127" s="5"/>
+      <c r="B127" s="7"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="B128" s="5"/>
+      <c r="B128" s="7"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="B129" s="5"/>
+      <c r="B129" s="7"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="B130" s="5"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="B131" s="5"/>
+      <c r="B131" s="7"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="B132" s="5"/>
+      <c r="B132" s="7"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="B133" s="5"/>
+      <c r="B133" s="7"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="B134" s="5"/>
+      <c r="B134" s="7"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="B135" s="5"/>
+      <c r="B135" s="7"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="B136" s="5"/>
+      <c r="B136" s="7"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="B137" s="5"/>
+      <c r="B137" s="7"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="B138" s="5"/>
+      <c r="B138" s="7"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="B139" s="5"/>
+      <c r="B139" s="7"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="B140" s="5"/>
+      <c r="B140" s="7"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="B141" s="5"/>
+      <c r="B141" s="7"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="B142" s="5"/>
+      <c r="B142" s="7"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="B143" s="5"/>
+      <c r="B143" s="7"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="B144" s="5"/>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="B145" s="5"/>
+      <c r="B145" s="7"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="B146" s="5"/>
+      <c r="B146" s="7"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="B147" s="5"/>
+      <c r="B147" s="7"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="B148" s="5"/>
+      <c r="B148" s="7"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="B149" s="5"/>
+      <c r="B149" s="7"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="B150" s="5"/>
+      <c r="B150" s="7"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="B151" s="5"/>
+      <c r="B151" s="7"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="B152" s="5"/>
+      <c r="B152" s="7"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="B153" s="5"/>
+      <c r="B153" s="7"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="B154" s="5"/>
+      <c r="B154" s="7"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="B155" s="5"/>
+      <c r="B155" s="7"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="B156" s="5"/>
+      <c r="B156" s="7"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="B157" s="5"/>
+      <c r="B157" s="7"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="B158" s="5"/>
+      <c r="B158" s="7"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="B159" s="5"/>
+      <c r="B159" s="7"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="B160" s="5"/>
+      <c r="B160" s="7"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="B161" s="5"/>
+      <c r="B161" s="7"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="B162" s="5"/>
+      <c r="B162" s="7"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="B163" s="5"/>
+      <c r="B163" s="7"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="B164" s="5"/>
+      <c r="B164" s="7"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="B165" s="5"/>
+      <c r="B165" s="7"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="B166" s="5"/>
+      <c r="B166" s="7"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="B167" s="5"/>
+      <c r="B167" s="7"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="B168" s="5"/>
+      <c r="B168" s="7"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="B169" s="5"/>
+      <c r="B169" s="7"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="B170" s="5"/>
+      <c r="B170" s="7"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="B171" s="5"/>
+      <c r="B171" s="7"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="B172" s="5"/>
+      <c r="B172" s="7"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="B173" s="5"/>
+      <c r="B173" s="7"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="B174" s="5"/>
+      <c r="B174" s="7"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="B175" s="5"/>
+      <c r="B175" s="7"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="B176" s="5"/>
+      <c r="B176" s="7"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="B177" s="5"/>
+      <c r="B177" s="7"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="B178" s="5"/>
+      <c r="B178" s="7"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="B179" s="5"/>
+      <c r="B179" s="7"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="B180" s="5"/>
+      <c r="B180" s="7"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="B181" s="5"/>
+      <c r="B181" s="7"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="B182" s="5"/>
+      <c r="B182" s="7"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="B183" s="5"/>
+      <c r="B183" s="7"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="B184" s="5"/>
+      <c r="B184" s="7"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="B185" s="5"/>
+      <c r="B185" s="7"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="B186" s="5"/>
+      <c r="B186" s="7"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="B187" s="5"/>
+      <c r="B187" s="7"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="B188" s="5"/>
+      <c r="B188" s="7"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="B189" s="5"/>
+      <c r="B189" s="7"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="B190" s="5"/>
+      <c r="B190" s="7"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="B191" s="5"/>
+      <c r="B191" s="7"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="B192" s="5"/>
+      <c r="B192" s="7"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="B193" s="5"/>
+      <c r="B193" s="7"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="B194" s="5"/>
+      <c r="B194" s="7"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="B195" s="5"/>
+      <c r="B195" s="7"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="B196" s="5"/>
+      <c r="B196" s="7"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="B197" s="5"/>
+      <c r="B197" s="7"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="B198" s="5"/>
+      <c r="B198" s="7"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="B199" s="5"/>
+      <c r="B199" s="7"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="B200" s="5"/>
+      <c r="B200" s="7"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="B201" s="5"/>
+      <c r="B201" s="7"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="B202" s="5"/>
+      <c r="B202" s="7"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="B203" s="5"/>
+      <c r="B203" s="7"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="B204" s="5"/>
+      <c r="B204" s="7"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="B205" s="5"/>
+      <c r="B205" s="7"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="B206" s="5"/>
+      <c r="B206" s="7"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="B207" s="5"/>
+      <c r="B207" s="7"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="B208" s="5"/>
+      <c r="B208" s="7"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="B209" s="5"/>
+      <c r="B209" s="7"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="B210" s="5"/>
+      <c r="B210" s="7"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="B211" s="5"/>
+      <c r="B211" s="7"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="B212" s="5"/>
+      <c r="B212" s="7"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="B213" s="5"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="B214" s="5"/>
+      <c r="B214" s="7"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="B215" s="5"/>
+      <c r="B215" s="7"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="B216" s="5"/>
+      <c r="B216" s="7"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="B217" s="5"/>
+      <c r="B217" s="7"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="B218" s="5"/>
+      <c r="B218" s="7"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="B219" s="5"/>
+      <c r="B219" s="7"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="B220" s="5"/>
+      <c r="B220" s="7"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/public/assets/images/user-import/Plantilla_Usuarios_LIA.xlsx
+++ b/public/assets/images/user-import/Plantilla_Usuarios_LIA.xlsx
@@ -92,7 +92,7 @@
     <t>ProfesorSummit2021</t>
   </si>
   <si>
-    <t>Metropolitan</t>
+    <t>AlumnoE0</t>
   </si>
   <si>
     <t>Primaria - Segundo Grado</t>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -140,7 +140,7 @@
     </font>
     <font>
       <color rgb="FF586573"/>
-      <name val="Arial"/>
+      <name val="&quot;DM Sans&quot;"/>
     </font>
     <font>
       <color theme="1"/>
@@ -151,8 +151,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Slack-Lato"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +170,12 @@
         <bgColor rgb="FFF5F9FC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -172,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -193,6 +204,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5624,7 +5638,7 @@
       <c r="B6" s="8">
         <v>6.0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="3">
@@ -5638,7 +5652,7 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="8">
